--- a/EC/Train Runs and Enforcements 2016-05-12.xlsx
+++ b/EC/Train Runs and Enforcements 2016-05-12.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="406">
   <si>
     <t>Train ID</t>
   </si>
@@ -1253,9 +1253,6 @@
     <t>Unhealthy Xing</t>
   </si>
   <si>
-    <t>Same as above</t>
-  </si>
-  <si>
     <t>TMC Entered Failed State</t>
   </si>
   <si>
@@ -1265,13 +1262,16 @@
     <t>Unhealthy XING</t>
   </si>
   <si>
-    <t>Overspeed in restricted Speed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TMC Entered Failed State </t>
-  </si>
-  <si>
-    <t>Loco 4026 was active for 2 runs</t>
+    <t>Related to trip 184-12 Shold not have been active</t>
+  </si>
+  <si>
+    <t>TMC Entered Failed State \ Should have been Trip 206-12</t>
+  </si>
+  <si>
+    <t>Operator setup error both TMCs in this pair were Active</t>
+  </si>
+  <si>
+    <t>192-12 erroneously selected instead</t>
   </si>
 </sst>
 </file>
@@ -1539,7 +1539,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1693,7 +1693,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1757,11 +1756,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="36">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1838,6 +1860,173 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2123,8 +2312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CK160"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A101" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M148" sqref="M148:O148"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R100" sqref="R100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2157,25 +2346,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:89" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="85" t="str">
+      <c r="A1" s="84" t="str">
         <f>"Eagle P3 System Performance - "&amp;TEXT(Variables!A2,"yyyy-mm-dd")</f>
         <v>Eagle P3 System Performance - 2016-05-11</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
     </row>
     <row r="2" spans="1:89" s="11" customFormat="1" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="45" t="s">
@@ -2233,28 +2422,28 @@
         <v>24</v>
       </c>
       <c r="S2" s="10"/>
-      <c r="T2" s="73" t="s">
+      <c r="T2" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="U2" s="73" t="s">
+      <c r="U2" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="V2" s="73" t="s">
+      <c r="V2" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="W2" s="73" t="s">
+      <c r="W2" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="X2" s="73" t="s">
+      <c r="X2" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="Y2" s="73" t="s">
+      <c r="Y2" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="Z2" s="74" t="s">
+      <c r="Z2" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="AA2" s="74" t="s">
+      <c r="AA2" s="73" t="s">
         <v>42</v>
       </c>
       <c r="AB2" s="10"/>
@@ -2371,35 +2560,35 @@
       <c r="P3" s="13"/>
       <c r="Q3" s="62"/>
       <c r="R3" s="52"/>
-      <c r="T3" s="75" t="str">
+      <c r="T3" s="74" t="str">
         <f t="shared" ref="T3:T34" si="2">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E3-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I3+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B3&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 03:08:44-0600',mode:absolute,to:'2016-05-12 03:52:25-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4014%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U3" s="75" t="str">
+      <c r="U3" s="74" t="str">
         <f t="shared" ref="U3:U8" si="3">IF(Y3&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
-      <c r="V3" s="75" t="e">
+      <c r="V3" s="74" t="e">
         <f t="shared" ref="V3:V12" si="4">VALUE(LEFT(A3,3))-VALUE(LEFT(A2,3))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="W3" s="75">
+      <c r="W3" s="74">
         <f>RIGHT(D3,LEN(D3)-4)/10000</f>
         <v>7.4099999999999999E-2</v>
       </c>
-      <c r="X3" s="75">
+      <c r="X3" s="74">
         <f>RIGHT(H3,LEN(H3)-4)/10000</f>
         <v>23.331900000000001</v>
       </c>
-      <c r="Y3" s="75">
+      <c r="Y3" s="74">
         <f>ABS(X3-W3)</f>
         <v>23.2578</v>
       </c>
-      <c r="Z3" s="76" t="e">
+      <c r="Z3" s="75" t="e">
         <f>VLOOKUP(A3,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA3" s="76" t="e">
+      <c r="AA3" s="75" t="e">
         <f>VLOOKUP(A3,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -2455,35 +2644,35 @@
       <c r="P4" s="13"/>
       <c r="Q4" s="62"/>
       <c r="R4" s="62"/>
-      <c r="T4" s="75" t="str">
+      <c r="T4" s="74" t="str">
         <f t="shared" si="2"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 03:56:37-0600',mode:absolute,to:'2016-05-12 04:49:19-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4026%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U4" s="75" t="str">
+      <c r="U4" s="74" t="str">
         <f t="shared" si="3"/>
         <v>N</v>
       </c>
-      <c r="V4" s="75">
+      <c r="V4" s="74">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="W4" s="75">
+      <c r="W4" s="74">
         <f t="shared" ref="W4:W66" si="5">RIGHT(D4,LEN(D4)-4)/10000</f>
         <v>23.2683</v>
       </c>
-      <c r="X4" s="75">
+      <c r="X4" s="74">
         <f t="shared" ref="X4:X66" si="6">RIGHT(H4,LEN(H4)-4)/10000</f>
         <v>1.52E-2</v>
       </c>
-      <c r="Y4" s="75">
+      <c r="Y4" s="74">
         <f t="shared" ref="Y4:Y66" si="7">ABS(X4-W4)</f>
         <v>23.2531</v>
       </c>
-      <c r="Z4" s="76" t="e">
+      <c r="Z4" s="75" t="e">
         <f>VLOOKUP(A4,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA4" s="76" t="e">
+      <c r="AA4" s="75" t="e">
         <f>VLOOKUP(A4,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -2539,35 +2728,35 @@
       <c r="P5" s="13"/>
       <c r="Q5" s="62"/>
       <c r="R5" s="62"/>
-      <c r="T5" s="75" t="str">
+      <c r="T5" s="74" t="str">
         <f t="shared" si="2"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 04:32:02-0600',mode:absolute,to:'2016-05-12 05:20:08-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U5" s="75" t="str">
+      <c r="U5" s="74" t="str">
         <f t="shared" si="3"/>
         <v>N</v>
       </c>
-      <c r="V5" s="75">
+      <c r="V5" s="74">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="W5" s="75">
+      <c r="W5" s="74">
         <f t="shared" si="5"/>
         <v>23.267900000000001</v>
       </c>
-      <c r="X5" s="75">
+      <c r="X5" s="74">
         <f t="shared" si="6"/>
         <v>1.41E-2</v>
       </c>
-      <c r="Y5" s="75">
+      <c r="Y5" s="74">
         <f t="shared" si="7"/>
         <v>23.253800000000002</v>
       </c>
-      <c r="Z5" s="76" t="e">
+      <c r="Z5" s="75" t="e">
         <f>VLOOKUP(A5,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA5" s="76" t="e">
+      <c r="AA5" s="75" t="e">
         <f>VLOOKUP(A5,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -2623,35 +2812,35 @@
       <c r="P6" s="13"/>
       <c r="Q6" s="62"/>
       <c r="R6" s="62"/>
-      <c r="T6" s="75" t="str">
+      <c r="T6" s="74" t="str">
         <f t="shared" si="2"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 04:04:48-0600',mode:absolute,to:'2016-05-12 04:52:25-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U6" s="75" t="str">
+      <c r="U6" s="74" t="str">
         <f t="shared" si="3"/>
         <v>N</v>
       </c>
-      <c r="V6" s="75">
+      <c r="V6" s="74">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="W6" s="75">
+      <c r="W6" s="74">
         <f t="shared" si="5"/>
         <v>7.6499999999999999E-2</v>
       </c>
-      <c r="X6" s="75">
+      <c r="X6" s="74">
         <f t="shared" si="6"/>
         <v>23.3307</v>
       </c>
-      <c r="Y6" s="75">
+      <c r="Y6" s="74">
         <f t="shared" si="7"/>
         <v>23.254200000000001</v>
       </c>
-      <c r="Z6" s="76" t="e">
+      <c r="Z6" s="75" t="e">
         <f>VLOOKUP(A6,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA6" s="76" t="e">
+      <c r="AA6" s="75" t="e">
         <f>VLOOKUP(A6,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -2706,38 +2895,38 @@
         <v>7.8166666603647172</v>
       </c>
       <c r="Q7" s="62" t="s">
-        <v>159</v>
+        <v>396</v>
       </c>
       <c r="R7" s="62" t="s">
         <v>395</v>
       </c>
-      <c r="T7" s="75" t="str">
+      <c r="T7" s="74" t="str">
         <f t="shared" si="2"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 05:00:59-0600',mode:absolute,to:'2016-05-12 05:12:38-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4028%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U7" s="75" t="str">
+      <c r="U7" s="74" t="str">
         <f t="shared" si="3"/>
         <v>Y</v>
       </c>
-      <c r="V7" s="75">
+      <c r="V7" s="74">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="W7" s="75">
+      <c r="W7" s="74">
         <v>23.265799999999999</v>
       </c>
-      <c r="X7" s="75">
+      <c r="X7" s="74">
         <v>23.245200000000001</v>
       </c>
-      <c r="Y7" s="75">
+      <c r="Y7" s="74">
         <f t="shared" si="7"/>
         <v>2.0599999999998175E-2</v>
       </c>
-      <c r="Z7" s="76">
+      <c r="Z7" s="75">
         <f>VLOOKUP(A7,Enforcements!$C$3:$J$26,8,0)</f>
         <v>233491</v>
       </c>
-      <c r="AA7" s="76" t="str">
+      <c r="AA7" s="75" t="str">
         <f>VLOOKUP(A7,Enforcements!$C$3:$J$26,3,0)</f>
         <v>TRACK WARRANT AUTHORITY</v>
       </c>
@@ -2793,35 +2982,35 @@
       <c r="P8" s="13"/>
       <c r="Q8" s="62"/>
       <c r="R8" s="62"/>
-      <c r="T8" s="75" t="str">
+      <c r="T8" s="74" t="str">
         <f t="shared" si="2"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 04:24:41-0600',mode:absolute,to:'2016-05-12 05:06:30-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U8" s="75" t="str">
+      <c r="U8" s="74" t="str">
         <f t="shared" si="3"/>
         <v>N</v>
       </c>
-      <c r="V8" s="75">
+      <c r="V8" s="74">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="W8" s="75">
+      <c r="W8" s="74">
         <f t="shared" si="5"/>
         <v>4.7100000000000003E-2</v>
       </c>
-      <c r="X8" s="75">
+      <c r="X8" s="74">
         <f t="shared" si="6"/>
         <v>23.129100000000001</v>
       </c>
-      <c r="Y8" s="75">
+      <c r="Y8" s="74">
         <f t="shared" si="7"/>
         <v>23.082000000000001</v>
       </c>
-      <c r="Z8" s="76">
+      <c r="Z8" s="75">
         <f>VLOOKUP(A8,Enforcements!$C$3:$J$26,8,0)</f>
         <v>233491</v>
       </c>
-      <c r="AA8" s="76" t="str">
+      <c r="AA8" s="75" t="str">
         <f>VLOOKUP(A8,Enforcements!$C$3:$J$26,3,0)</f>
         <v>TRACK WARRANT AUTHORITY</v>
       </c>
@@ -2877,35 +3066,35 @@
       <c r="P9" s="13"/>
       <c r="Q9" s="62"/>
       <c r="R9" s="62"/>
-      <c r="T9" s="75" t="str">
+      <c r="T9" s="74" t="str">
         <f t="shared" si="2"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 05:23:22-0600',mode:absolute,to:'2016-05-12 06:06:21-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U9" s="75" t="str">
+      <c r="U9" s="74" t="str">
         <f t="shared" ref="U9:U11" si="8">IF(Y9&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
-      <c r="V9" s="75">
+      <c r="V9" s="74">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="W9" s="75">
+      <c r="W9" s="74">
         <f t="shared" si="5"/>
         <v>23.299399999999999</v>
       </c>
-      <c r="X9" s="75">
+      <c r="X9" s="74">
         <f t="shared" si="6"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="Y9" s="75">
+      <c r="Y9" s="74">
         <f t="shared" si="7"/>
         <v>23.284399999999998</v>
       </c>
-      <c r="Z9" s="76" t="e">
+      <c r="Z9" s="75" t="e">
         <f>VLOOKUP(A9,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA9" s="76" t="e">
+      <c r="AA9" s="75" t="e">
         <f>VLOOKUP(A9,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -2961,35 +3150,35 @@
       <c r="P10" s="13"/>
       <c r="Q10" s="62"/>
       <c r="R10" s="62"/>
-      <c r="T10" s="75" t="str">
+      <c r="T10" s="74" t="str">
         <f t="shared" si="2"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 04:29:29-0600',mode:absolute,to:'2016-05-12 05:22:20-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U10" s="75" t="str">
+      <c r="U10" s="74" t="str">
         <f t="shared" si="8"/>
         <v>N</v>
       </c>
-      <c r="V10" s="75">
+      <c r="V10" s="74">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="W10" s="75">
+      <c r="W10" s="74">
         <f t="shared" si="5"/>
         <v>4.5699999999999998E-2</v>
       </c>
-      <c r="X10" s="75">
+      <c r="X10" s="74">
         <f t="shared" si="6"/>
         <v>23.3291</v>
       </c>
-      <c r="Y10" s="75">
+      <c r="Y10" s="74">
         <f t="shared" si="7"/>
         <v>23.2834</v>
       </c>
-      <c r="Z10" s="76" t="e">
+      <c r="Z10" s="75" t="e">
         <f>VLOOKUP(A10,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA10" s="76" t="e">
+      <c r="AA10" s="75" t="e">
         <f>VLOOKUP(A10,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -3045,35 +3234,35 @@
       <c r="P11" s="13"/>
       <c r="Q11" s="62"/>
       <c r="R11" s="62"/>
-      <c r="T11" s="75" t="str">
+      <c r="T11" s="74" t="str">
         <f t="shared" si="2"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 05:27:07-0600',mode:absolute,to:'2016-05-12 06:19:43-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U11" s="75" t="str">
+      <c r="U11" s="74" t="str">
         <f t="shared" si="8"/>
         <v>N</v>
       </c>
-      <c r="V11" s="75">
+      <c r="V11" s="74">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="W11" s="75">
+      <c r="W11" s="74">
         <f t="shared" si="5"/>
         <v>23.298400000000001</v>
       </c>
-      <c r="X11" s="75">
+      <c r="X11" s="74">
         <f t="shared" si="6"/>
         <v>1.47E-2</v>
       </c>
-      <c r="Y11" s="75">
+      <c r="Y11" s="74">
         <f t="shared" si="7"/>
         <v>23.2837</v>
       </c>
-      <c r="Z11" s="76" t="e">
+      <c r="Z11" s="75" t="e">
         <f>VLOOKUP(A11,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA11" s="76" t="e">
+      <c r="AA11" s="75" t="e">
         <f>VLOOKUP(A11,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -3127,39 +3316,39 @@
         <v>42</v>
       </c>
       <c r="Q12" s="62" t="s">
-        <v>159</v>
+        <v>396</v>
       </c>
       <c r="R12" s="62" t="s">
         <v>394</v>
       </c>
-      <c r="T12" s="75" t="str">
+      <c r="T12" s="74" t="str">
         <f t="shared" si="2"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 05:05:36-0600',mode:absolute,to:'2016-05-12 05:40:06-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4014%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U12" s="75" t="str">
+      <c r="U12" s="74" t="str">
         <f t="shared" ref="U12:U22" si="9">IF(Y12&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
-      <c r="V12" s="75">
+      <c r="V12" s="74">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="W12" s="75">
+      <c r="W12" s="74">
         <v>7.5499999999999998E-2</v>
       </c>
-      <c r="X12" s="75">
+      <c r="X12" s="74">
         <f t="shared" si="6"/>
         <v>23.329699999999999</v>
       </c>
-      <c r="Y12" s="75">
+      <c r="Y12" s="74">
         <f t="shared" si="7"/>
         <v>23.254199999999997</v>
       </c>
-      <c r="Z12" s="76" t="e">
+      <c r="Z12" s="75" t="e">
         <f>VLOOKUP(A12,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA12" s="76" t="e">
+      <c r="AA12" s="75" t="e">
         <f>VLOOKUP(A12,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -3215,35 +3404,35 @@
       <c r="P13" s="13"/>
       <c r="Q13" s="62"/>
       <c r="R13" s="62"/>
-      <c r="T13" s="75" t="str">
+      <c r="T13" s="74" t="str">
         <f t="shared" si="2"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 05:48:28-0600',mode:absolute,to:'2016-05-12 06:33:38-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4013%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U13" s="75" t="str">
+      <c r="U13" s="74" t="str">
         <f t="shared" si="9"/>
         <v>N</v>
       </c>
-      <c r="V13" s="75">
+      <c r="V13" s="74">
         <f t="shared" ref="V13:V14" si="11">VALUE(LEFT(A13,3))-VALUE(LEFT(A12,3))</f>
         <v>1</v>
       </c>
-      <c r="W13" s="75">
+      <c r="W13" s="74">
         <f t="shared" si="5"/>
         <v>23.298300000000001</v>
       </c>
-      <c r="X13" s="75">
+      <c r="X13" s="74">
         <f t="shared" si="6"/>
         <v>1.3599999999999999E-2</v>
       </c>
-      <c r="Y13" s="75">
+      <c r="Y13" s="74">
         <f t="shared" si="7"/>
         <v>23.284700000000001</v>
       </c>
-      <c r="Z13" s="76">
+      <c r="Z13" s="75">
         <f>VLOOKUP(A13,Enforcements!$C$3:$J$26,8,0)</f>
         <v>1</v>
       </c>
-      <c r="AA13" s="76" t="str">
+      <c r="AA13" s="75" t="str">
         <f>VLOOKUP(A13,Enforcements!$C$3:$J$26,3,0)</f>
         <v>TRACK WARRANT AUTHORITY</v>
       </c>
@@ -3299,35 +3488,35 @@
       <c r="P14" s="13"/>
       <c r="Q14" s="62"/>
       <c r="R14" s="62"/>
-      <c r="T14" s="75" t="str">
+      <c r="T14" s="74" t="str">
         <f t="shared" si="2"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 05:00:42-0600',mode:absolute,to:'2016-05-12 05:52:02-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4025%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U14" s="75" t="str">
+      <c r="U14" s="74" t="str">
         <f t="shared" si="9"/>
         <v>N</v>
       </c>
-      <c r="V14" s="75">
+      <c r="V14" s="74">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="W14" s="75">
+      <c r="W14" s="74">
         <f t="shared" si="5"/>
         <v>4.5499999999999999E-2</v>
       </c>
-      <c r="X14" s="75">
+      <c r="X14" s="74">
         <f t="shared" si="6"/>
         <v>23.3322</v>
       </c>
-      <c r="Y14" s="75">
+      <c r="Y14" s="74">
         <f t="shared" si="7"/>
         <v>23.2867</v>
       </c>
-      <c r="Z14" s="76" t="e">
+      <c r="Z14" s="75" t="e">
         <f>VLOOKUP(A14,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA14" s="76" t="e">
+      <c r="AA14" s="75" t="e">
         <f>VLOOKUP(A14,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -3383,35 +3572,35 @@
       <c r="P15" s="13"/>
       <c r="Q15" s="62"/>
       <c r="R15" s="62"/>
-      <c r="T15" s="75" t="str">
+      <c r="T15" s="74" t="str">
         <f t="shared" si="2"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 05:58:22-0600',mode:absolute,to:'2016-05-12 06:48:56-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4026%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U15" s="75" t="str">
+      <c r="U15" s="74" t="str">
         <f t="shared" si="9"/>
         <v>N</v>
       </c>
-      <c r="V15" s="75">
+      <c r="V15" s="74">
         <f t="shared" ref="V15:V46" si="12">VALUE(LEFT(A15,3))-VALUE(LEFT(A14,3))</f>
         <v>1</v>
       </c>
-      <c r="W15" s="75">
+      <c r="W15" s="74">
         <f t="shared" si="5"/>
         <v>23.298999999999999</v>
       </c>
-      <c r="X15" s="75">
+      <c r="X15" s="74">
         <f t="shared" si="6"/>
         <v>1.5599999999999999E-2</v>
       </c>
-      <c r="Y15" s="75">
+      <c r="Y15" s="74">
         <f t="shared" si="7"/>
         <v>23.2834</v>
       </c>
-      <c r="Z15" s="76" t="e">
+      <c r="Z15" s="75" t="e">
         <f>VLOOKUP(A15,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA15" s="76" t="e">
+      <c r="AA15" s="75" t="e">
         <f>VLOOKUP(A15,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -3467,35 +3656,35 @@
       <c r="P16" s="13"/>
       <c r="Q16" s="62"/>
       <c r="R16" s="62"/>
-      <c r="T16" s="75" t="str">
+      <c r="T16" s="74" t="str">
         <f t="shared" si="2"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 05:20:16-0600',mode:absolute,to:'2016-05-12 06:06:43-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U16" s="75" t="str">
+      <c r="U16" s="74" t="str">
         <f t="shared" si="9"/>
         <v>N</v>
       </c>
-      <c r="V16" s="75">
+      <c r="V16" s="74">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="W16" s="75">
+      <c r="W16" s="74">
         <f t="shared" si="5"/>
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="X16" s="75">
+      <c r="X16" s="74">
         <f t="shared" si="6"/>
         <v>23.3308</v>
       </c>
-      <c r="Y16" s="75">
+      <c r="Y16" s="74">
         <f t="shared" si="7"/>
         <v>23.253799999999998</v>
       </c>
-      <c r="Z16" s="76">
+      <c r="Z16" s="75">
         <f>VLOOKUP(A16,Enforcements!$C$3:$J$26,8,0)</f>
         <v>233491</v>
       </c>
-      <c r="AA16" s="76" t="str">
+      <c r="AA16" s="75" t="str">
         <f>VLOOKUP(A16,Enforcements!$C$3:$J$26,3,0)</f>
         <v>TRACK WARRANT AUTHORITY</v>
       </c>
@@ -3551,35 +3740,35 @@
       <c r="P17" s="13"/>
       <c r="Q17" s="62"/>
       <c r="R17" s="62"/>
-      <c r="T17" s="75" t="str">
+      <c r="T17" s="74" t="str">
         <f t="shared" si="2"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 06:21:44-0600',mode:absolute,to:'2016-05-12 07:03:53-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U17" s="75" t="str">
+      <c r="U17" s="74" t="str">
         <f t="shared" si="9"/>
         <v>N</v>
       </c>
-      <c r="V17" s="75">
+      <c r="V17" s="74">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="W17" s="75">
+      <c r="W17" s="74">
         <f t="shared" si="5"/>
         <v>23.299299999999999</v>
       </c>
-      <c r="X17" s="75">
+      <c r="X17" s="74">
         <f t="shared" si="6"/>
         <v>1.5599999999999999E-2</v>
       </c>
-      <c r="Y17" s="75">
+      <c r="Y17" s="74">
         <f t="shared" si="7"/>
         <v>23.2837</v>
       </c>
-      <c r="Z17" s="76" t="e">
+      <c r="Z17" s="75" t="e">
         <f>VLOOKUP(A17,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA17" s="76" t="e">
+      <c r="AA17" s="75" t="e">
         <f>VLOOKUP(A17,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -3635,35 +3824,35 @@
       <c r="P18" s="13"/>
       <c r="Q18" s="62"/>
       <c r="R18" s="62"/>
-      <c r="T18" s="75" t="str">
+      <c r="T18" s="74" t="str">
         <f t="shared" si="2"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 05:33:44-0600',mode:absolute,to:'2016-05-12 06:22:24-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U18" s="75" t="str">
+      <c r="U18" s="74" t="str">
         <f t="shared" si="9"/>
         <v>N</v>
       </c>
-      <c r="V18" s="75">
+      <c r="V18" s="74">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="W18" s="75">
+      <c r="W18" s="74">
         <f t="shared" si="5"/>
         <v>4.7699999999999999E-2</v>
       </c>
-      <c r="X18" s="75">
+      <c r="X18" s="74">
         <f t="shared" si="6"/>
         <v>23.3307</v>
       </c>
-      <c r="Y18" s="75">
+      <c r="Y18" s="74">
         <f t="shared" si="7"/>
         <v>23.283000000000001</v>
       </c>
-      <c r="Z18" s="76">
+      <c r="Z18" s="75">
         <f>VLOOKUP(A18,Enforcements!$C$3:$J$26,8,0)</f>
         <v>233491</v>
       </c>
-      <c r="AA18" s="76" t="str">
+      <c r="AA18" s="75" t="str">
         <f>VLOOKUP(A18,Enforcements!$C$3:$J$26,3,0)</f>
         <v>TRACK WARRANT AUTHORITY</v>
       </c>
@@ -3719,35 +3908,35 @@
       <c r="P19" s="13"/>
       <c r="Q19" s="62"/>
       <c r="R19" s="62"/>
-      <c r="T19" s="75" t="str">
+      <c r="T19" s="74" t="str">
         <f t="shared" si="2"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 06:30:31-0600',mode:absolute,to:'2016-05-12 07:20:19-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U19" s="75" t="str">
+      <c r="U19" s="74" t="str">
         <f t="shared" si="9"/>
         <v>N</v>
       </c>
-      <c r="V19" s="75">
+      <c r="V19" s="74">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="W19" s="75">
+      <c r="W19" s="74">
         <f t="shared" si="5"/>
         <v>23.298200000000001</v>
       </c>
-      <c r="X19" s="75">
+      <c r="X19" s="74">
         <f t="shared" si="6"/>
         <v>1.54E-2</v>
       </c>
-      <c r="Y19" s="75">
+      <c r="Y19" s="74">
         <f t="shared" si="7"/>
         <v>23.282800000000002</v>
       </c>
-      <c r="Z19" s="76" t="e">
+      <c r="Z19" s="75" t="e">
         <f>VLOOKUP(A19,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA19" s="76" t="e">
+      <c r="AA19" s="75" t="e">
         <f>VLOOKUP(A19,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -3803,35 +3992,35 @@
       <c r="P20" s="13"/>
       <c r="Q20" s="62"/>
       <c r="R20" s="62"/>
-      <c r="T20" s="75" t="str">
+      <c r="T20" s="74" t="str">
         <f t="shared" si="2"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 05:53:34-0600',mode:absolute,to:'2016-05-12 06:37:38-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U20" s="75" t="str">
+      <c r="U20" s="74" t="str">
         <f t="shared" si="9"/>
         <v>N</v>
       </c>
-      <c r="V20" s="75">
+      <c r="V20" s="74">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="W20" s="75">
+      <c r="W20" s="74">
         <f t="shared" si="5"/>
         <v>0.14879999999999999</v>
       </c>
-      <c r="X20" s="75">
+      <c r="X20" s="74">
         <f t="shared" si="6"/>
         <v>23.331700000000001</v>
       </c>
-      <c r="Y20" s="75">
+      <c r="Y20" s="74">
         <f t="shared" si="7"/>
         <v>23.1829</v>
       </c>
-      <c r="Z20" s="76" t="e">
+      <c r="Z20" s="75" t="e">
         <f>VLOOKUP(A20,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA20" s="76" t="e">
+      <c r="AA20" s="75" t="e">
         <f>VLOOKUP(A20,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -3887,35 +4076,35 @@
       <c r="P21" s="13"/>
       <c r="Q21" s="62"/>
       <c r="R21" s="62"/>
-      <c r="T21" s="75" t="str">
+      <c r="T21" s="74" t="str">
         <f t="shared" si="2"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 06:44:34-0600',mode:absolute,to:'2016-05-12 07:35:01-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U21" s="75" t="str">
+      <c r="U21" s="74" t="str">
         <f t="shared" si="9"/>
         <v>N</v>
       </c>
-      <c r="V21" s="75">
+      <c r="V21" s="74">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="W21" s="75">
+      <c r="W21" s="74">
         <f t="shared" si="5"/>
         <v>23.299800000000001</v>
       </c>
-      <c r="X21" s="75">
+      <c r="X21" s="74">
         <f t="shared" si="6"/>
         <v>1.4500000000000001E-2</v>
       </c>
-      <c r="Y21" s="75">
+      <c r="Y21" s="74">
         <f t="shared" si="7"/>
         <v>23.285299999999999</v>
       </c>
-      <c r="Z21" s="76" t="e">
+      <c r="Z21" s="75" t="e">
         <f>VLOOKUP(A21,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA21" s="76" t="e">
+      <c r="AA21" s="75" t="e">
         <f>VLOOKUP(A21,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -3971,35 +4160,35 @@
       <c r="P22" s="13"/>
       <c r="Q22" s="62"/>
       <c r="R22" s="62"/>
-      <c r="T22" s="75" t="str">
+      <c r="T22" s="74" t="str">
         <f t="shared" si="2"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 06:09:29-0600',mode:absolute,to:'2016-05-12 06:52:17-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U22" s="75" t="str">
+      <c r="U22" s="74" t="str">
         <f t="shared" si="9"/>
         <v>N</v>
       </c>
-      <c r="V22" s="75">
+      <c r="V22" s="74">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="W22" s="75">
+      <c r="W22" s="74">
         <f t="shared" si="5"/>
         <v>4.9500000000000002E-2</v>
       </c>
-      <c r="X22" s="75">
+      <c r="X22" s="74">
         <f t="shared" si="6"/>
         <v>23.328399999999998</v>
       </c>
-      <c r="Y22" s="75">
+      <c r="Y22" s="74">
         <f t="shared" si="7"/>
         <v>23.2789</v>
       </c>
-      <c r="Z22" s="76" t="e">
+      <c r="Z22" s="75" t="e">
         <f>VLOOKUP(A22,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA22" s="76" t="e">
+      <c r="AA22" s="75" t="e">
         <f>VLOOKUP(A22,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -4055,35 +4244,35 @@
       <c r="P23" s="13"/>
       <c r="Q23" s="62"/>
       <c r="R23" s="62"/>
-      <c r="T23" s="75" t="str">
+      <c r="T23" s="74" t="str">
         <f t="shared" si="2"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 07:00:39-0600',mode:absolute,to:'2016-05-12 07:49:48-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U23" s="75" t="str">
+      <c r="U23" s="74" t="str">
         <f t="shared" ref="U23:U25" si="14">IF(Y23&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
-      <c r="V23" s="75">
+      <c r="V23" s="74">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="W23" s="75">
+      <c r="W23" s="74">
         <f t="shared" si="5"/>
         <v>23.296700000000001</v>
       </c>
-      <c r="X23" s="75">
+      <c r="X23" s="74">
         <f t="shared" si="6"/>
         <v>1.5599999999999999E-2</v>
       </c>
-      <c r="Y23" s="75">
+      <c r="Y23" s="74">
         <f t="shared" si="7"/>
         <v>23.281100000000002</v>
       </c>
-      <c r="Z23" s="76" t="e">
+      <c r="Z23" s="75" t="e">
         <f>VLOOKUP(A23,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA23" s="76" t="e">
+      <c r="AA23" s="75" t="e">
         <f>VLOOKUP(A23,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -4139,35 +4328,35 @@
       <c r="P24" s="13"/>
       <c r="Q24" s="62"/>
       <c r="R24" s="62"/>
-      <c r="T24" s="75" t="str">
+      <c r="T24" s="74" t="str">
         <f t="shared" si="2"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 06:20:05-0600',mode:absolute,to:'2016-05-12 07:07:28-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U24" s="75" t="str">
+      <c r="U24" s="74" t="str">
         <f t="shared" si="14"/>
         <v>N</v>
       </c>
-      <c r="V24" s="75">
+      <c r="V24" s="74">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="W24" s="75">
+      <c r="W24" s="74">
         <f t="shared" si="5"/>
         <v>4.4200000000000003E-2</v>
       </c>
-      <c r="X24" s="75">
+      <c r="X24" s="74">
         <f t="shared" si="6"/>
         <v>23.331199999999999</v>
       </c>
-      <c r="Y24" s="75">
+      <c r="Y24" s="74">
         <f t="shared" si="7"/>
         <v>23.286999999999999</v>
       </c>
-      <c r="Z24" s="76" t="e">
+      <c r="Z24" s="75" t="e">
         <f>VLOOKUP(A24,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA24" s="76" t="e">
+      <c r="AA24" s="75" t="e">
         <f>VLOOKUP(A24,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -4223,35 +4412,35 @@
       <c r="P25" s="13"/>
       <c r="Q25" s="62"/>
       <c r="R25" s="62"/>
-      <c r="T25" s="75" t="str">
+      <c r="T25" s="74" t="str">
         <f t="shared" si="2"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 07:11:47-0600',mode:absolute,to:'2016-05-12 08:05:14-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U25" s="75" t="str">
+      <c r="U25" s="74" t="str">
         <f t="shared" si="14"/>
         <v>N</v>
       </c>
-      <c r="V25" s="75">
+      <c r="V25" s="74">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="W25" s="75">
+      <c r="W25" s="74">
         <f t="shared" si="5"/>
         <v>23.2989</v>
       </c>
-      <c r="X25" s="75">
+      <c r="X25" s="74">
         <f t="shared" si="6"/>
         <v>1.4500000000000001E-2</v>
       </c>
-      <c r="Y25" s="75">
+      <c r="Y25" s="74">
         <f t="shared" si="7"/>
         <v>23.284399999999998</v>
       </c>
-      <c r="Z25" s="76" t="e">
+      <c r="Z25" s="75" t="e">
         <f>VLOOKUP(A25,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA25" s="76" t="e">
+      <c r="AA25" s="75" t="e">
         <f>VLOOKUP(A25,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -4307,35 +4496,35 @@
       <c r="P26" s="13"/>
       <c r="Q26" s="62"/>
       <c r="R26" s="62"/>
-      <c r="T26" s="75" t="str">
+      <c r="T26" s="74" t="str">
         <f t="shared" si="2"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 06:35:07-0600',mode:absolute,to:'2016-05-12 07:21:37-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4014%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U26" s="75" t="str">
+      <c r="U26" s="74" t="str">
         <f t="shared" ref="U26:U57" si="15">IF(Y26&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
-      <c r="V26" s="75">
+      <c r="V26" s="74">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="W26" s="75">
+      <c r="W26" s="74">
         <f t="shared" si="5"/>
         <v>4.6199999999999998E-2</v>
       </c>
-      <c r="X26" s="75">
+      <c r="X26" s="74">
         <f t="shared" si="6"/>
         <v>23.330300000000001</v>
       </c>
-      <c r="Y26" s="75">
+      <c r="Y26" s="74">
         <f t="shared" si="7"/>
         <v>23.284100000000002</v>
       </c>
-      <c r="Z26" s="76" t="e">
+      <c r="Z26" s="75" t="e">
         <f>VLOOKUP(A26,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA26" s="76" t="e">
+      <c r="AA26" s="75" t="e">
         <f>VLOOKUP(A26,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -4391,35 +4580,35 @@
       <c r="P27" s="13"/>
       <c r="Q27" s="62"/>
       <c r="R27" s="62"/>
-      <c r="T27" s="75" t="str">
+      <c r="T27" s="74" t="str">
         <f t="shared" si="2"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 07:30:44-0600',mode:absolute,to:'2016-05-12 08:19:10-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4013%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U27" s="75" t="str">
+      <c r="U27" s="74" t="str">
         <f t="shared" si="15"/>
         <v>N</v>
       </c>
-      <c r="V27" s="75">
+      <c r="V27" s="74">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="W27" s="75">
+      <c r="W27" s="74">
         <f t="shared" si="5"/>
         <v>23.297799999999999</v>
       </c>
-      <c r="X27" s="75">
+      <c r="X27" s="74">
         <f t="shared" si="6"/>
         <v>1.41E-2</v>
       </c>
-      <c r="Y27" s="75">
+      <c r="Y27" s="74">
         <f t="shared" si="7"/>
         <v>23.2837</v>
       </c>
-      <c r="Z27" s="76" t="e">
+      <c r="Z27" s="75" t="e">
         <f>VLOOKUP(A27,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA27" s="76" t="e">
+      <c r="AA27" s="75" t="e">
         <f>VLOOKUP(A27,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -4475,35 +4664,35 @@
       <c r="P28" s="13"/>
       <c r="Q28" s="62"/>
       <c r="R28" s="62"/>
-      <c r="T28" s="75" t="str">
+      <c r="T28" s="74" t="str">
         <f t="shared" si="2"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 06:51:23-0600',mode:absolute,to:'2016-05-12 07:37:27-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4025%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U28" s="75" t="str">
+      <c r="U28" s="74" t="str">
         <f t="shared" si="15"/>
         <v>N</v>
       </c>
-      <c r="V28" s="75">
+      <c r="V28" s="74">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="W28" s="75">
+      <c r="W28" s="74">
         <f t="shared" si="5"/>
         <v>4.6199999999999998E-2</v>
       </c>
-      <c r="X28" s="75">
+      <c r="X28" s="74">
         <f t="shared" si="6"/>
         <v>23.331399999999999</v>
       </c>
-      <c r="Y28" s="75">
+      <c r="Y28" s="74">
         <f t="shared" si="7"/>
         <v>23.2852</v>
       </c>
-      <c r="Z28" s="76" t="e">
+      <c r="Z28" s="75" t="e">
         <f>VLOOKUP(A28,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA28" s="76" t="e">
+      <c r="AA28" s="75" t="e">
         <f>VLOOKUP(A28,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -4559,35 +4748,35 @@
       <c r="P29" s="13"/>
       <c r="Q29" s="62"/>
       <c r="R29" s="62"/>
-      <c r="T29" s="75" t="str">
+      <c r="T29" s="74" t="str">
         <f t="shared" si="2"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 07:47:54-0600',mode:absolute,to:'2016-05-12 08:34:44-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4026%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U29" s="75" t="str">
+      <c r="U29" s="74" t="str">
         <f t="shared" si="15"/>
         <v>N</v>
       </c>
-      <c r="V29" s="75">
+      <c r="V29" s="74">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="W29" s="75">
+      <c r="W29" s="74">
         <f t="shared" si="5"/>
         <v>23.3</v>
       </c>
-      <c r="X29" s="75">
+      <c r="X29" s="74">
         <f t="shared" si="6"/>
         <v>1.52E-2</v>
       </c>
-      <c r="Y29" s="75">
+      <c r="Y29" s="74">
         <f t="shared" si="7"/>
         <v>23.284800000000001</v>
       </c>
-      <c r="Z29" s="76" t="e">
+      <c r="Z29" s="75" t="e">
         <f>VLOOKUP(A29,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA29" s="76" t="e">
+      <c r="AA29" s="75" t="e">
         <f>VLOOKUP(A29,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -4643,35 +4832,35 @@
       <c r="P30" s="13"/>
       <c r="Q30" s="62"/>
       <c r="R30" s="62"/>
-      <c r="T30" s="75" t="str">
+      <c r="T30" s="74" t="str">
         <f t="shared" si="2"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 07:05:05-0600',mode:absolute,to:'2016-05-12 07:53:07-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U30" s="75" t="str">
+      <c r="U30" s="74" t="str">
         <f t="shared" si="15"/>
         <v>N</v>
       </c>
-      <c r="V30" s="75">
+      <c r="V30" s="74">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="W30" s="75">
+      <c r="W30" s="74">
         <f t="shared" si="5"/>
         <v>4.5100000000000001E-2</v>
       </c>
-      <c r="X30" s="75">
+      <c r="X30" s="74">
         <f t="shared" si="6"/>
         <v>23.329899999999999</v>
       </c>
-      <c r="Y30" s="75">
+      <c r="Y30" s="74">
         <f t="shared" si="7"/>
         <v>23.284799999999997</v>
       </c>
-      <c r="Z30" s="76" t="e">
+      <c r="Z30" s="75" t="e">
         <f>VLOOKUP(A30,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA30" s="76" t="e">
+      <c r="AA30" s="75" t="e">
         <f>VLOOKUP(A30,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -4727,35 +4916,35 @@
       <c r="P31" s="13"/>
       <c r="Q31" s="62"/>
       <c r="R31" s="62"/>
-      <c r="T31" s="75" t="str">
+      <c r="T31" s="74" t="str">
         <f t="shared" si="2"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 08:07:06-0600',mode:absolute,to:'2016-05-12 08:51:07-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U31" s="75" t="str">
+      <c r="U31" s="74" t="str">
         <f t="shared" si="15"/>
         <v>N</v>
       </c>
-      <c r="V31" s="75">
+      <c r="V31" s="74">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="W31" s="75">
+      <c r="W31" s="74">
         <f t="shared" si="5"/>
         <v>23.297999999999998</v>
       </c>
-      <c r="X31" s="75">
+      <c r="X31" s="74">
         <f t="shared" si="6"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="Y31" s="75">
+      <c r="Y31" s="74">
         <f t="shared" si="7"/>
         <v>23.282999999999998</v>
       </c>
-      <c r="Z31" s="76">
+      <c r="Z31" s="75">
         <f>VLOOKUP(A31,Enforcements!$C$3:$J$26,8,0)</f>
         <v>21848</v>
       </c>
-      <c r="AA31" s="76" t="str">
+      <c r="AA31" s="75" t="str">
         <f>VLOOKUP(A31,Enforcements!$C$3:$J$26,3,0)</f>
         <v>PERMANENT SPEED RESTRICTION</v>
       </c>
@@ -4811,35 +5000,35 @@
       <c r="P32" s="13"/>
       <c r="Q32" s="62"/>
       <c r="R32" s="62"/>
-      <c r="T32" s="75" t="str">
+      <c r="T32" s="74" t="str">
         <f t="shared" si="2"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 07:22:38-0600',mode:absolute,to:'2016-05-12 08:07:41-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U32" s="75" t="str">
+      <c r="U32" s="74" t="str">
         <f t="shared" si="15"/>
         <v>N</v>
       </c>
-      <c r="V32" s="75">
+      <c r="V32" s="74">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="W32" s="75">
+      <c r="W32" s="74">
         <f t="shared" si="5"/>
         <v>4.5499999999999999E-2</v>
       </c>
-      <c r="X32" s="75">
+      <c r="X32" s="74">
         <f t="shared" si="6"/>
         <v>23.329699999999999</v>
       </c>
-      <c r="Y32" s="75">
+      <c r="Y32" s="74">
         <f t="shared" si="7"/>
         <v>23.284199999999998</v>
       </c>
-      <c r="Z32" s="76" t="e">
+      <c r="Z32" s="75" t="e">
         <f>VLOOKUP(A32,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA32" s="76" t="e">
+      <c r="AA32" s="75" t="e">
         <f>VLOOKUP(A32,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -4895,35 +5084,35 @@
       <c r="P33" s="13"/>
       <c r="Q33" s="62"/>
       <c r="R33" s="62"/>
-      <c r="T33" s="75" t="str">
+      <c r="T33" s="74" t="str">
         <f t="shared" si="2"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 08:18:15-0600',mode:absolute,to:'2016-05-12 09:04:13-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U33" s="75" t="str">
+      <c r="U33" s="74" t="str">
         <f t="shared" si="15"/>
         <v>N</v>
       </c>
-      <c r="V33" s="75">
+      <c r="V33" s="74">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="W33" s="75">
+      <c r="W33" s="74">
         <f t="shared" si="5"/>
         <v>23.298300000000001</v>
       </c>
-      <c r="X33" s="75">
+      <c r="X33" s="74">
         <f t="shared" si="6"/>
         <v>1.38E-2</v>
       </c>
-      <c r="Y33" s="75">
+      <c r="Y33" s="74">
         <f t="shared" si="7"/>
         <v>23.284500000000001</v>
       </c>
-      <c r="Z33" s="76" t="e">
+      <c r="Z33" s="75" t="e">
         <f>VLOOKUP(A33,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA33" s="76" t="e">
+      <c r="AA33" s="75" t="e">
         <f>VLOOKUP(A33,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -4979,35 +5168,35 @@
       <c r="P34" s="13"/>
       <c r="Q34" s="62"/>
       <c r="R34" s="62"/>
-      <c r="T34" s="75" t="str">
+      <c r="T34" s="74" t="str">
         <f t="shared" si="2"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 07:35:06-0600',mode:absolute,to:'2016-05-12 08:22:10-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U34" s="75" t="str">
+      <c r="U34" s="74" t="str">
         <f t="shared" si="15"/>
         <v>N</v>
       </c>
-      <c r="V34" s="75">
+      <c r="V34" s="74">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="W34" s="75">
+      <c r="W34" s="74">
         <f t="shared" si="5"/>
         <v>4.7100000000000003E-2</v>
       </c>
-      <c r="X34" s="75">
+      <c r="X34" s="74">
         <f t="shared" si="6"/>
         <v>23.3293</v>
       </c>
-      <c r="Y34" s="75">
+      <c r="Y34" s="74">
         <f t="shared" si="7"/>
         <v>23.2822</v>
       </c>
-      <c r="Z34" s="76" t="e">
+      <c r="Z34" s="75" t="e">
         <f>VLOOKUP(A34,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA34" s="76" t="e">
+      <c r="AA34" s="75" t="e">
         <f>VLOOKUP(A34,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -5063,35 +5252,35 @@
       <c r="P35" s="13"/>
       <c r="Q35" s="62"/>
       <c r="R35" s="62"/>
-      <c r="T35" s="75" t="str">
+      <c r="T35" s="74" t="str">
         <f t="shared" ref="T35:T66" si="18">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E35-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I35+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B35&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 08:32:19-0600',mode:absolute,to:'2016-05-12 09:19:26-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U35" s="75" t="str">
+      <c r="U35" s="74" t="str">
         <f t="shared" si="15"/>
         <v>N</v>
       </c>
-      <c r="V35" s="75">
+      <c r="V35" s="74">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="W35" s="75">
+      <c r="W35" s="74">
         <f t="shared" si="5"/>
         <v>23.296900000000001</v>
       </c>
-      <c r="X35" s="75">
+      <c r="X35" s="74">
         <f t="shared" si="6"/>
         <v>1.38E-2</v>
       </c>
-      <c r="Y35" s="75">
+      <c r="Y35" s="74">
         <f t="shared" si="7"/>
         <v>23.283100000000001</v>
       </c>
-      <c r="Z35" s="76" t="e">
+      <c r="Z35" s="75" t="e">
         <f>VLOOKUP(A35,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA35" s="76" t="e">
+      <c r="AA35" s="75" t="e">
         <f>VLOOKUP(A35,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -5147,35 +5336,35 @@
       <c r="P36" s="13"/>
       <c r="Q36" s="62"/>
       <c r="R36" s="62"/>
-      <c r="T36" s="75" t="str">
+      <c r="T36" s="74" t="str">
         <f t="shared" si="18"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 07:53:31-0600',mode:absolute,to:'2016-05-12 08:37:02-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U36" s="75" t="str">
+      <c r="U36" s="74" t="str">
         <f t="shared" si="15"/>
         <v>N</v>
       </c>
-      <c r="V36" s="75">
+      <c r="V36" s="74">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="W36" s="75">
+      <c r="W36" s="74">
         <f t="shared" si="5"/>
         <v>4.4400000000000002E-2</v>
       </c>
-      <c r="X36" s="75">
+      <c r="X36" s="74">
         <f t="shared" si="6"/>
         <v>23.3293</v>
       </c>
-      <c r="Y36" s="75">
+      <c r="Y36" s="74">
         <f t="shared" si="7"/>
         <v>23.2849</v>
       </c>
-      <c r="Z36" s="76" t="e">
+      <c r="Z36" s="75" t="e">
         <f>VLOOKUP(A36,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA36" s="76" t="e">
+      <c r="AA36" s="75" t="e">
         <f>VLOOKUP(A36,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -5231,35 +5420,35 @@
       <c r="P37" s="13"/>
       <c r="Q37" s="62"/>
       <c r="R37" s="62"/>
-      <c r="T37" s="75" t="str">
+      <c r="T37" s="74" t="str">
         <f t="shared" si="18"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 08:43:37-0600',mode:absolute,to:'2016-05-12 09:34:45-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U37" s="75" t="str">
+      <c r="U37" s="74" t="str">
         <f t="shared" si="15"/>
         <v>N</v>
       </c>
-      <c r="V37" s="75">
+      <c r="V37" s="74">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="W37" s="75">
+      <c r="W37" s="74">
         <f t="shared" si="5"/>
         <v>23.297000000000001</v>
       </c>
-      <c r="X37" s="75">
+      <c r="X37" s="74">
         <f t="shared" si="6"/>
         <v>1.43E-2</v>
       </c>
-      <c r="Y37" s="75">
+      <c r="Y37" s="74">
         <f t="shared" si="7"/>
         <v>23.282700000000002</v>
       </c>
-      <c r="Z37" s="76" t="e">
+      <c r="Z37" s="75" t="e">
         <f>VLOOKUP(A37,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA37" s="76" t="e">
+      <c r="AA37" s="75" t="e">
         <f>VLOOKUP(A37,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -5315,35 +5504,35 @@
       <c r="P38" s="13"/>
       <c r="Q38" s="62"/>
       <c r="R38" s="62"/>
-      <c r="T38" s="75" t="str">
+      <c r="T38" s="74" t="str">
         <f t="shared" si="18"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 08:05:13-0600',mode:absolute,to:'2016-05-12 08:51:55-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U38" s="75" t="str">
+      <c r="U38" s="74" t="str">
         <f t="shared" si="15"/>
         <v>N</v>
       </c>
-      <c r="V38" s="75">
+      <c r="V38" s="74">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="W38" s="75">
+      <c r="W38" s="74">
         <f t="shared" si="5"/>
         <v>4.53E-2</v>
       </c>
-      <c r="X38" s="75">
+      <c r="X38" s="74">
         <f t="shared" si="6"/>
         <v>23.3293</v>
       </c>
-      <c r="Y38" s="75">
+      <c r="Y38" s="74">
         <f t="shared" si="7"/>
         <v>23.283999999999999</v>
       </c>
-      <c r="Z38" s="76" t="e">
+      <c r="Z38" s="75" t="e">
         <f>VLOOKUP(A38,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA38" s="76" t="e">
+      <c r="AA38" s="75" t="e">
         <f>VLOOKUP(A38,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -5399,35 +5588,35 @@
       <c r="P39" s="13"/>
       <c r="Q39" s="62"/>
       <c r="R39" s="62"/>
-      <c r="T39" s="75" t="str">
+      <c r="T39" s="74" t="str">
         <f t="shared" si="18"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 08:55:21-0600',mode:absolute,to:'2016-05-12 09:48:58-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U39" s="75" t="str">
+      <c r="U39" s="74" t="str">
         <f t="shared" si="15"/>
         <v>N</v>
       </c>
-      <c r="V39" s="75">
+      <c r="V39" s="74">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="W39" s="75">
+      <c r="W39" s="74">
         <f t="shared" si="5"/>
         <v>23.298400000000001</v>
       </c>
-      <c r="X39" s="75">
+      <c r="X39" s="74">
         <f t="shared" si="6"/>
         <v>1.43E-2</v>
       </c>
-      <c r="Y39" s="75">
+      <c r="Y39" s="74">
         <f t="shared" si="7"/>
         <v>23.284100000000002</v>
       </c>
-      <c r="Z39" s="76" t="e">
+      <c r="Z39" s="75" t="e">
         <f>VLOOKUP(A39,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA39" s="76" t="e">
+      <c r="AA39" s="75" t="e">
         <f>VLOOKUP(A39,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -5483,35 +5672,35 @@
       <c r="P40" s="13"/>
       <c r="Q40" s="62"/>
       <c r="R40" s="62"/>
-      <c r="T40" s="75" t="str">
+      <c r="T40" s="74" t="str">
         <f t="shared" si="18"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 08:20:07-0600',mode:absolute,to:'2016-05-12 09:06:52-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4014%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U40" s="75" t="str">
+      <c r="U40" s="74" t="str">
         <f t="shared" si="15"/>
         <v>N</v>
       </c>
-      <c r="V40" s="75">
+      <c r="V40" s="74">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="W40" s="75">
+      <c r="W40" s="74">
         <f t="shared" si="5"/>
         <v>4.6600000000000003E-2</v>
       </c>
-      <c r="X40" s="75">
+      <c r="X40" s="74">
         <f t="shared" si="6"/>
         <v>23.333200000000001</v>
       </c>
-      <c r="Y40" s="75">
+      <c r="Y40" s="74">
         <f t="shared" si="7"/>
         <v>23.2866</v>
       </c>
-      <c r="Z40" s="76" t="e">
+      <c r="Z40" s="75" t="e">
         <f>VLOOKUP(A40,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA40" s="76" t="e">
+      <c r="AA40" s="75" t="e">
         <f>VLOOKUP(A40,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -5567,35 +5756,35 @@
       <c r="P41" s="13"/>
       <c r="Q41" s="62"/>
       <c r="R41" s="62"/>
-      <c r="T41" s="75" t="str">
+      <c r="T41" s="74" t="str">
         <f t="shared" si="18"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 09:20:02-0600',mode:absolute,to:'2016-05-12 10:04:01-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4013%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U41" s="75" t="str">
+      <c r="U41" s="74" t="str">
         <f t="shared" si="15"/>
         <v>N</v>
       </c>
-      <c r="V41" s="75">
+      <c r="V41" s="74">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="W41" s="75">
+      <c r="W41" s="74">
         <f t="shared" si="5"/>
         <v>23.300999999999998</v>
       </c>
-      <c r="X41" s="75">
+      <c r="X41" s="74">
         <f t="shared" si="6"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="Y41" s="75">
+      <c r="Y41" s="74">
         <f t="shared" si="7"/>
         <v>23.285999999999998</v>
       </c>
-      <c r="Z41" s="76" t="e">
+      <c r="Z41" s="75" t="e">
         <f>VLOOKUP(A41,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA41" s="76" t="e">
+      <c r="AA41" s="75" t="e">
         <f>VLOOKUP(A41,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -5651,35 +5840,35 @@
       <c r="P42" s="13"/>
       <c r="Q42" s="62"/>
       <c r="R42" s="62"/>
-      <c r="T42" s="75" t="str">
+      <c r="T42" s="74" t="str">
         <f t="shared" si="18"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 08:35:25-0600',mode:absolute,to:'2016-05-12 09:22:30-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4025%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U42" s="75" t="str">
+      <c r="U42" s="74" t="str">
         <f t="shared" si="15"/>
         <v>N</v>
       </c>
-      <c r="V42" s="75">
+      <c r="V42" s="74">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="W42" s="75">
+      <c r="W42" s="74">
         <f t="shared" si="5"/>
         <v>4.5699999999999998E-2</v>
       </c>
-      <c r="X42" s="75">
+      <c r="X42" s="74">
         <f t="shared" si="6"/>
         <v>23.3401</v>
       </c>
-      <c r="Y42" s="75">
+      <c r="Y42" s="74">
         <f t="shared" si="7"/>
         <v>23.2944</v>
       </c>
-      <c r="Z42" s="76" t="e">
+      <c r="Z42" s="75" t="e">
         <f>VLOOKUP(A42,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA42" s="76" t="e">
+      <c r="AA42" s="75" t="e">
         <f>VLOOKUP(A42,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -5735,35 +5924,35 @@
       <c r="P43" s="13"/>
       <c r="Q43" s="62"/>
       <c r="R43" s="62"/>
-      <c r="T43" s="75" t="str">
+      <c r="T43" s="74" t="str">
         <f t="shared" si="18"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 09:29:08-0600',mode:absolute,to:'2016-05-12 10:19:01-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4026%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U43" s="75" t="str">
+      <c r="U43" s="74" t="str">
         <f t="shared" si="15"/>
         <v>N</v>
       </c>
-      <c r="V43" s="75">
+      <c r="V43" s="74">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="W43" s="75">
+      <c r="W43" s="74">
         <f t="shared" si="5"/>
         <v>23.301100000000002</v>
       </c>
-      <c r="X43" s="75">
+      <c r="X43" s="74">
         <f t="shared" si="6"/>
         <v>1.5599999999999999E-2</v>
       </c>
-      <c r="Y43" s="75">
+      <c r="Y43" s="74">
         <f t="shared" si="7"/>
         <v>23.285500000000003</v>
       </c>
-      <c r="Z43" s="76" t="e">
+      <c r="Z43" s="75" t="e">
         <f>VLOOKUP(A43,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA43" s="76" t="e">
+      <c r="AA43" s="75" t="e">
         <f>VLOOKUP(A43,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -5819,35 +6008,35 @@
       <c r="P44" s="13"/>
       <c r="Q44" s="62"/>
       <c r="R44" s="62"/>
-      <c r="T44" s="75" t="str">
+      <c r="T44" s="74" t="str">
         <f t="shared" si="18"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 08:55:45-0600',mode:absolute,to:'2016-05-12 09:36:31-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U44" s="75" t="str">
+      <c r="U44" s="74" t="str">
         <f t="shared" si="15"/>
         <v>N</v>
       </c>
-      <c r="V44" s="75">
+      <c r="V44" s="74">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="W44" s="75">
+      <c r="W44" s="74">
         <f t="shared" si="5"/>
         <v>4.3299999999999998E-2</v>
       </c>
-      <c r="X44" s="75">
+      <c r="X44" s="74">
         <f t="shared" si="6"/>
         <v>23.331700000000001</v>
       </c>
-      <c r="Y44" s="75">
+      <c r="Y44" s="74">
         <f t="shared" si="7"/>
         <v>23.288400000000003</v>
       </c>
-      <c r="Z44" s="76" t="e">
+      <c r="Z44" s="75" t="e">
         <f>VLOOKUP(A44,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA44" s="76" t="e">
+      <c r="AA44" s="75" t="e">
         <f>VLOOKUP(A44,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -5903,35 +6092,35 @@
       <c r="P45" s="13"/>
       <c r="Q45" s="62"/>
       <c r="R45" s="62"/>
-      <c r="T45" s="75" t="str">
+      <c r="T45" s="74" t="str">
         <f t="shared" si="18"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 09:53:06-0600',mode:absolute,to:'2016-05-12 10:34:33-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U45" s="75" t="str">
+      <c r="U45" s="74" t="str">
         <f t="shared" si="15"/>
         <v>N</v>
       </c>
-      <c r="V45" s="75">
+      <c r="V45" s="74">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="W45" s="75">
+      <c r="W45" s="74">
         <f t="shared" si="5"/>
         <v>23.299299999999999</v>
       </c>
-      <c r="X45" s="75">
+      <c r="X45" s="74">
         <f t="shared" si="6"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="Y45" s="75">
+      <c r="Y45" s="74">
         <f t="shared" si="7"/>
         <v>23.284299999999998</v>
       </c>
-      <c r="Z45" s="76">
+      <c r="Z45" s="75">
         <f>VLOOKUP(A45,Enforcements!$C$3:$J$26,8,0)</f>
         <v>231269</v>
       </c>
-      <c r="AA45" s="76" t="str">
+      <c r="AA45" s="75" t="str">
         <f>VLOOKUP(A45,Enforcements!$C$3:$J$26,3,0)</f>
         <v>EQUIPMENT RESTRICTION</v>
       </c>
@@ -5987,35 +6176,35 @@
       <c r="P46" s="13"/>
       <c r="Q46" s="62"/>
       <c r="R46" s="62"/>
-      <c r="T46" s="75" t="str">
+      <c r="T46" s="74" t="str">
         <f t="shared" si="18"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 09:07:12-0600',mode:absolute,to:'2016-05-12 09:52:38-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U46" s="75" t="str">
+      <c r="U46" s="74" t="str">
         <f t="shared" si="15"/>
         <v>N</v>
       </c>
-      <c r="V46" s="75">
+      <c r="V46" s="74">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="W46" s="75">
+      <c r="W46" s="74">
         <f t="shared" si="5"/>
         <v>4.6399999999999997E-2</v>
       </c>
-      <c r="X46" s="75">
+      <c r="X46" s="74">
         <f t="shared" si="6"/>
         <v>23.333200000000001</v>
       </c>
-      <c r="Y46" s="75">
+      <c r="Y46" s="74">
         <f t="shared" si="7"/>
         <v>23.286800000000003</v>
       </c>
-      <c r="Z46" s="76" t="e">
+      <c r="Z46" s="75" t="e">
         <f>VLOOKUP(A46,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA46" s="76" t="e">
+      <c r="AA46" s="75" t="e">
         <f>VLOOKUP(A46,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -6071,35 +6260,35 @@
       <c r="P47" s="13"/>
       <c r="Q47" s="62"/>
       <c r="R47" s="62"/>
-      <c r="T47" s="75" t="str">
+      <c r="T47" s="74" t="str">
         <f t="shared" si="18"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 10:03:59-0600',mode:absolute,to:'2016-05-12 10:49:53-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U47" s="75" t="str">
+      <c r="U47" s="74" t="str">
         <f t="shared" si="15"/>
         <v>N</v>
       </c>
-      <c r="V47" s="75">
+      <c r="V47" s="74">
         <f t="shared" ref="V47:V78" si="19">VALUE(LEFT(A47,3))-VALUE(LEFT(A46,3))</f>
         <v>1</v>
       </c>
-      <c r="W47" s="75">
+      <c r="W47" s="74">
         <f t="shared" si="5"/>
         <v>23.3001</v>
       </c>
-      <c r="X47" s="75">
+      <c r="X47" s="74">
         <f t="shared" si="6"/>
         <v>1.49E-2</v>
       </c>
-      <c r="Y47" s="75">
+      <c r="Y47" s="74">
         <f t="shared" si="7"/>
         <v>23.2852</v>
       </c>
-      <c r="Z47" s="76" t="e">
+      <c r="Z47" s="75" t="e">
         <f>VLOOKUP(A47,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA47" s="76" t="e">
+      <c r="AA47" s="75" t="e">
         <f>VLOOKUP(A47,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -6155,35 +6344,35 @@
       <c r="P48" s="13"/>
       <c r="Q48" s="62"/>
       <c r="R48" s="62"/>
-      <c r="T48" s="75" t="str">
+      <c r="T48" s="74" t="str">
         <f t="shared" si="18"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 09:19:59-0600',mode:absolute,to:'2016-05-12 10:07:10-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U48" s="75" t="str">
+      <c r="U48" s="74" t="str">
         <f t="shared" si="15"/>
         <v>N</v>
       </c>
-      <c r="V48" s="75">
+      <c r="V48" s="74">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="W48" s="75">
+      <c r="W48" s="74">
         <f t="shared" si="5"/>
         <v>4.4600000000000001E-2</v>
       </c>
-      <c r="X48" s="75">
+      <c r="X48" s="74">
         <f t="shared" si="6"/>
         <v>23.331399999999999</v>
       </c>
-      <c r="Y48" s="75">
+      <c r="Y48" s="74">
         <f t="shared" si="7"/>
         <v>23.286799999999999</v>
       </c>
-      <c r="Z48" s="76" t="e">
+      <c r="Z48" s="75" t="e">
         <f>VLOOKUP(A48,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA48" s="76" t="e">
+      <c r="AA48" s="75" t="e">
         <f>VLOOKUP(A48,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -6239,35 +6428,35 @@
       <c r="P49" s="13"/>
       <c r="Q49" s="62"/>
       <c r="R49" s="62"/>
-      <c r="T49" s="75" t="str">
+      <c r="T49" s="74" t="str">
         <f t="shared" si="18"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 10:07:41-0600',mode:absolute,to:'2016-05-12 11:04:23-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U49" s="75" t="str">
+      <c r="U49" s="74" t="str">
         <f t="shared" si="15"/>
         <v>N</v>
       </c>
-      <c r="V49" s="75">
+      <c r="V49" s="74">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="W49" s="75">
+      <c r="W49" s="74">
         <f t="shared" si="5"/>
         <v>23.3002</v>
       </c>
-      <c r="X49" s="75">
+      <c r="X49" s="74">
         <f t="shared" si="6"/>
         <v>1.54E-2</v>
       </c>
-      <c r="Y49" s="75">
+      <c r="Y49" s="74">
         <f t="shared" si="7"/>
         <v>23.284800000000001</v>
       </c>
-      <c r="Z49" s="76" t="e">
+      <c r="Z49" s="75" t="e">
         <f>VLOOKUP(A49,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA49" s="76" t="e">
+      <c r="AA49" s="75" t="e">
         <f>VLOOKUP(A49,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -6323,35 +6512,35 @@
       <c r="P50" s="13"/>
       <c r="Q50" s="62"/>
       <c r="R50" s="62"/>
-      <c r="T50" s="75" t="str">
+      <c r="T50" s="74" t="str">
         <f t="shared" si="18"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 09:39:38-0600',mode:absolute,to:'2016-05-12 10:21:42-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U50" s="75" t="str">
+      <c r="U50" s="74" t="str">
         <f t="shared" si="15"/>
         <v>N</v>
       </c>
-      <c r="V50" s="75">
+      <c r="V50" s="74">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="W50" s="75">
+      <c r="W50" s="74">
         <f t="shared" si="5"/>
         <v>4.6899999999999997E-2</v>
       </c>
-      <c r="X50" s="75">
+      <c r="X50" s="74">
         <f t="shared" si="6"/>
         <v>23.328900000000001</v>
       </c>
-      <c r="Y50" s="75">
+      <c r="Y50" s="74">
         <f t="shared" si="7"/>
         <v>23.282</v>
       </c>
-      <c r="Z50" s="76" t="e">
+      <c r="Z50" s="75" t="e">
         <f>VLOOKUP(A50,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA50" s="76" t="e">
+      <c r="AA50" s="75" t="e">
         <f>VLOOKUP(A50,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -6407,35 +6596,35 @@
       <c r="P51" s="13"/>
       <c r="Q51" s="62"/>
       <c r="R51" s="62"/>
-      <c r="T51" s="75" t="str">
+      <c r="T51" s="74" t="str">
         <f t="shared" si="18"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 10:32:49-0600',mode:absolute,to:'2016-05-12 11:21:29-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U51" s="75" t="str">
+      <c r="U51" s="74" t="str">
         <f t="shared" si="15"/>
         <v>N</v>
       </c>
-      <c r="V51" s="75">
+      <c r="V51" s="74">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="W51" s="75">
+      <c r="W51" s="74">
         <f t="shared" si="5"/>
         <v>23.296299999999999</v>
       </c>
-      <c r="X51" s="75">
+      <c r="X51" s="74">
         <f t="shared" si="6"/>
         <v>1.5800000000000002E-2</v>
       </c>
-      <c r="Y51" s="75">
+      <c r="Y51" s="74">
         <f t="shared" si="7"/>
         <v>23.2805</v>
       </c>
-      <c r="Z51" s="76">
+      <c r="Z51" s="75">
         <f>VLOOKUP(A51,Enforcements!$C$3:$J$26,8,0)</f>
         <v>4677</v>
       </c>
-      <c r="AA51" s="76" t="str">
+      <c r="AA51" s="75" t="str">
         <f>VLOOKUP(A51,Enforcements!$C$3:$J$26,3,0)</f>
         <v>PERMANENT SPEED RESTRICTION</v>
       </c>
@@ -6491,35 +6680,35 @@
       <c r="P52" s="13"/>
       <c r="Q52" s="62"/>
       <c r="R52" s="62"/>
-      <c r="T52" s="75" t="str">
+      <c r="T52" s="74" t="str">
         <f t="shared" si="18"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 09:50:50-0600',mode:absolute,to:'2016-05-12 10:37:16-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U52" s="75" t="str">
+      <c r="U52" s="74" t="str">
         <f t="shared" si="15"/>
         <v>N</v>
       </c>
-      <c r="V52" s="75">
+      <c r="V52" s="74">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="W52" s="75">
+      <c r="W52" s="74">
         <f t="shared" si="5"/>
         <v>4.4699999999999997E-2</v>
       </c>
-      <c r="X52" s="75">
+      <c r="X52" s="74">
         <f t="shared" si="6"/>
         <v>23.329799999999999</v>
       </c>
-      <c r="Y52" s="75">
+      <c r="Y52" s="74">
         <f t="shared" si="7"/>
         <v>23.2851</v>
       </c>
-      <c r="Z52" s="76" t="e">
+      <c r="Z52" s="75" t="e">
         <f>VLOOKUP(A52,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA52" s="76" t="e">
+      <c r="AA52" s="75" t="e">
         <f>VLOOKUP(A52,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -6575,35 +6764,35 @@
       <c r="P53" s="13"/>
       <c r="Q53" s="62"/>
       <c r="R53" s="62"/>
-      <c r="T53" s="75" t="str">
+      <c r="T53" s="74" t="str">
         <f t="shared" si="18"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 10:43:59-0600',mode:absolute,to:'2016-05-12 11:34:26-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U53" s="75" t="str">
+      <c r="U53" s="74" t="str">
         <f t="shared" si="15"/>
         <v>N</v>
       </c>
-      <c r="V53" s="75">
+      <c r="V53" s="74">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="W53" s="75">
+      <c r="W53" s="74">
         <f t="shared" si="5"/>
         <v>23.299099999999999</v>
       </c>
-      <c r="X53" s="75">
+      <c r="X53" s="74">
         <f t="shared" si="6"/>
         <v>1.5599999999999999E-2</v>
       </c>
-      <c r="Y53" s="75">
+      <c r="Y53" s="74">
         <f t="shared" si="7"/>
         <v>23.2835</v>
       </c>
-      <c r="Z53" s="76" t="e">
+      <c r="Z53" s="75" t="e">
         <f>VLOOKUP(A53,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA53" s="76" t="e">
+      <c r="AA53" s="75" t="e">
         <f>VLOOKUP(A53,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -6659,35 +6848,35 @@
       <c r="P54" s="13"/>
       <c r="Q54" s="62"/>
       <c r="R54" s="62"/>
-      <c r="T54" s="75" t="str">
+      <c r="T54" s="74" t="str">
         <f t="shared" si="18"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 10:08:13-0600',mode:absolute,to:'2016-05-12 10:51:07-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4014%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U54" s="75" t="str">
+      <c r="U54" s="74" t="str">
         <f t="shared" si="15"/>
         <v>N</v>
       </c>
-      <c r="V54" s="75">
+      <c r="V54" s="74">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="W54" s="75">
+      <c r="W54" s="74">
         <f t="shared" si="5"/>
         <v>4.3799999999999999E-2</v>
       </c>
-      <c r="X54" s="75">
+      <c r="X54" s="74">
         <f t="shared" si="6"/>
         <v>23.331800000000001</v>
       </c>
-      <c r="Y54" s="75">
+      <c r="Y54" s="74">
         <f t="shared" si="7"/>
         <v>23.288</v>
       </c>
-      <c r="Z54" s="76" t="e">
+      <c r="Z54" s="75" t="e">
         <f>VLOOKUP(A54,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA54" s="76" t="e">
+      <c r="AA54" s="75" t="e">
         <f>VLOOKUP(A54,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -6743,35 +6932,35 @@
       <c r="P55" s="13"/>
       <c r="Q55" s="62"/>
       <c r="R55" s="62"/>
-      <c r="T55" s="75" t="str">
+      <c r="T55" s="74" t="str">
         <f t="shared" si="18"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 11:00:49-0600',mode:absolute,to:'2016-05-12 11:48:14-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4013%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U55" s="75" t="str">
+      <c r="U55" s="74" t="str">
         <f t="shared" si="15"/>
         <v>N</v>
       </c>
-      <c r="V55" s="75">
+      <c r="V55" s="74">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="W55" s="75">
+      <c r="W55" s="74">
         <f t="shared" si="5"/>
         <v>23.297499999999999</v>
       </c>
-      <c r="X55" s="75">
+      <c r="X55" s="74">
         <f t="shared" si="6"/>
         <v>1.4500000000000001E-2</v>
       </c>
-      <c r="Y55" s="75">
+      <c r="Y55" s="74">
         <f t="shared" si="7"/>
         <v>23.282999999999998</v>
       </c>
-      <c r="Z55" s="76" t="e">
+      <c r="Z55" s="75" t="e">
         <f>VLOOKUP(A55,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA55" s="76" t="e">
+      <c r="AA55" s="75" t="e">
         <f>VLOOKUP(A55,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -6827,35 +7016,35 @@
       <c r="P56" s="13"/>
       <c r="Q56" s="62"/>
       <c r="R56" s="62"/>
-      <c r="T56" s="75" t="str">
+      <c r="T56" s="74" t="str">
         <f t="shared" si="18"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 10:20:23-0600',mode:absolute,to:'2016-05-12 11:06:53-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4025%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U56" s="75" t="str">
+      <c r="U56" s="74" t="str">
         <f t="shared" si="15"/>
         <v>N</v>
       </c>
-      <c r="V56" s="75">
+      <c r="V56" s="74">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="W56" s="75">
+      <c r="W56" s="74">
         <f t="shared" si="5"/>
         <v>4.5100000000000001E-2</v>
       </c>
-      <c r="X56" s="75">
+      <c r="X56" s="74">
         <f t="shared" si="6"/>
         <v>23.331399999999999</v>
       </c>
-      <c r="Y56" s="75">
+      <c r="Y56" s="74">
         <f t="shared" si="7"/>
         <v>23.286299999999997</v>
       </c>
-      <c r="Z56" s="76" t="e">
+      <c r="Z56" s="75" t="e">
         <f>VLOOKUP(A56,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA56" s="76" t="e">
+      <c r="AA56" s="75" t="e">
         <f>VLOOKUP(A56,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -6911,35 +7100,35 @@
       <c r="P57" s="13"/>
       <c r="Q57" s="62"/>
       <c r="R57" s="62"/>
-      <c r="T57" s="75" t="str">
+      <c r="T57" s="74" t="str">
         <f t="shared" si="18"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 11:16:01-0600',mode:absolute,to:'2016-05-12 12:04:38-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4026%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U57" s="75" t="str">
+      <c r="U57" s="74" t="str">
         <f t="shared" si="15"/>
         <v>N</v>
       </c>
-      <c r="V57" s="75">
+      <c r="V57" s="74">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="W57" s="75">
+      <c r="W57" s="74">
         <f t="shared" si="5"/>
         <v>23.299399999999999</v>
       </c>
-      <c r="X57" s="75">
+      <c r="X57" s="74">
         <f t="shared" si="6"/>
         <v>1.3899999999999999E-2</v>
       </c>
-      <c r="Y57" s="75">
+      <c r="Y57" s="74">
         <f t="shared" si="7"/>
         <v>23.285499999999999</v>
       </c>
-      <c r="Z57" s="76" t="e">
+      <c r="Z57" s="75" t="e">
         <f>VLOOKUP(A57,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA57" s="76" t="e">
+      <c r="AA57" s="75" t="e">
         <f>VLOOKUP(A57,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -6995,35 +7184,35 @@
       <c r="P58" s="13"/>
       <c r="Q58" s="62"/>
       <c r="R58" s="62"/>
-      <c r="T58" s="75" t="str">
+      <c r="T58" s="74" t="str">
         <f t="shared" si="18"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 10:36:00-0600',mode:absolute,to:'2016-05-12 11:22:21-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U58" s="75" t="str">
+      <c r="U58" s="74" t="str">
         <f t="shared" ref="U58:U93" si="21">IF(Y58&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
-      <c r="V58" s="75">
+      <c r="V58" s="74">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="W58" s="75">
+      <c r="W58" s="74">
         <f t="shared" si="5"/>
         <v>4.58E-2</v>
       </c>
-      <c r="X58" s="75">
+      <c r="X58" s="74">
         <f t="shared" si="6"/>
         <v>23.3276</v>
       </c>
-      <c r="Y58" s="75">
+      <c r="Y58" s="74">
         <f t="shared" si="7"/>
         <v>23.2818</v>
       </c>
-      <c r="Z58" s="76" t="e">
+      <c r="Z58" s="75" t="e">
         <f>VLOOKUP(A58,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA58" s="76" t="e">
+      <c r="AA58" s="75" t="e">
         <f>VLOOKUP(A58,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -7079,35 +7268,35 @@
       <c r="P59" s="13"/>
       <c r="Q59" s="62"/>
       <c r="R59" s="62"/>
-      <c r="T59" s="75" t="str">
+      <c r="T59" s="74" t="str">
         <f t="shared" si="18"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 11:33:22-0600',mode:absolute,to:'2016-05-12 12:19:35-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U59" s="75" t="str">
+      <c r="U59" s="74" t="str">
         <f t="shared" si="21"/>
         <v>N</v>
       </c>
-      <c r="V59" s="75">
+      <c r="V59" s="74">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="W59" s="75">
+      <c r="W59" s="74">
         <f t="shared" si="5"/>
         <v>23.2973</v>
       </c>
-      <c r="X59" s="75">
+      <c r="X59" s="74">
         <f t="shared" si="6"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="Y59" s="75">
+      <c r="Y59" s="74">
         <f t="shared" si="7"/>
         <v>23.282299999999999</v>
       </c>
-      <c r="Z59" s="76" t="e">
+      <c r="Z59" s="75" t="e">
         <f>VLOOKUP(A59,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA59" s="76" t="e">
+      <c r="AA59" s="75" t="e">
         <f>VLOOKUP(A59,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -7163,35 +7352,35 @@
       <c r="P60" s="13"/>
       <c r="Q60" s="62"/>
       <c r="R60" s="62"/>
-      <c r="T60" s="75" t="str">
+      <c r="T60" s="74" t="str">
         <f t="shared" si="18"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 10:56:05-0600',mode:absolute,to:'2016-05-12 11:36:39-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U60" s="75" t="str">
+      <c r="U60" s="74" t="str">
         <f t="shared" si="21"/>
         <v>N</v>
       </c>
-      <c r="V60" s="75">
+      <c r="V60" s="74">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="W60" s="75">
+      <c r="W60" s="74">
         <f t="shared" si="5"/>
         <v>4.6600000000000003E-2</v>
       </c>
-      <c r="X60" s="75">
+      <c r="X60" s="74">
         <f t="shared" si="6"/>
         <v>23.3308</v>
       </c>
-      <c r="Y60" s="75">
+      <c r="Y60" s="74">
         <f t="shared" si="7"/>
         <v>23.284199999999998</v>
       </c>
-      <c r="Z60" s="76" t="e">
+      <c r="Z60" s="75" t="e">
         <f>VLOOKUP(A60,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA60" s="76" t="e">
+      <c r="AA60" s="75" t="e">
         <f>VLOOKUP(A60,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -7247,35 +7436,35 @@
       <c r="P61" s="13"/>
       <c r="Q61" s="62"/>
       <c r="R61" s="62"/>
-      <c r="T61" s="75" t="str">
+      <c r="T61" s="74" t="str">
         <f t="shared" si="18"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 11:54:12-0600',mode:absolute,to:'2016-05-12 12:33:46-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U61" s="75" t="str">
+      <c r="U61" s="74" t="str">
         <f t="shared" si="21"/>
         <v>N</v>
       </c>
-      <c r="V61" s="75">
+      <c r="V61" s="74">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="W61" s="75">
+      <c r="W61" s="74">
         <f t="shared" si="5"/>
         <v>23.298100000000002</v>
       </c>
-      <c r="X61" s="75">
+      <c r="X61" s="74">
         <f t="shared" si="6"/>
         <v>1.54E-2</v>
       </c>
-      <c r="Y61" s="75">
+      <c r="Y61" s="74">
         <f t="shared" si="7"/>
         <v>23.282700000000002</v>
       </c>
-      <c r="Z61" s="76" t="e">
+      <c r="Z61" s="75" t="e">
         <f>VLOOKUP(A61,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA61" s="76" t="e">
+      <c r="AA61" s="75" t="e">
         <f>VLOOKUP(A61,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -7331,35 +7520,35 @@
       <c r="P62" s="13"/>
       <c r="Q62" s="62"/>
       <c r="R62" s="62"/>
-      <c r="T62" s="75" t="str">
+      <c r="T62" s="74" t="str">
         <f t="shared" si="18"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 11:07:47-0600',mode:absolute,to:'2016-05-12 11:51:56-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U62" s="75" t="str">
+      <c r="U62" s="74" t="str">
         <f t="shared" si="21"/>
         <v>N</v>
       </c>
-      <c r="V62" s="75">
+      <c r="V62" s="74">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="W62" s="75">
+      <c r="W62" s="74">
         <f t="shared" si="5"/>
         <v>4.5699999999999998E-2</v>
       </c>
-      <c r="X62" s="75">
+      <c r="X62" s="74">
         <f t="shared" si="6"/>
         <v>23.330100000000002</v>
       </c>
-      <c r="Y62" s="75">
+      <c r="Y62" s="74">
         <f t="shared" si="7"/>
         <v>23.284400000000002</v>
       </c>
-      <c r="Z62" s="76" t="e">
+      <c r="Z62" s="75" t="e">
         <f>VLOOKUP(A62,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA62" s="76" t="e">
+      <c r="AA62" s="75" t="e">
         <f>VLOOKUP(A62,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -7415,35 +7604,35 @@
       <c r="P63" s="13"/>
       <c r="Q63" s="62"/>
       <c r="R63" s="62"/>
-      <c r="T63" s="75" t="str">
+      <c r="T63" s="74" t="str">
         <f t="shared" si="18"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 11:57:41-0600',mode:absolute,to:'2016-05-12 12:48:59-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U63" s="75" t="str">
+      <c r="U63" s="74" t="str">
         <f t="shared" si="21"/>
         <v>N</v>
       </c>
-      <c r="V63" s="75">
+      <c r="V63" s="74">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="W63" s="75">
+      <c r="W63" s="74">
         <f t="shared" si="5"/>
         <v>23.299399999999999</v>
       </c>
-      <c r="X63" s="75">
+      <c r="X63" s="74">
         <f t="shared" si="6"/>
         <v>1.43E-2</v>
       </c>
-      <c r="Y63" s="75">
+      <c r="Y63" s="74">
         <f t="shared" si="7"/>
         <v>23.2851</v>
       </c>
-      <c r="Z63" s="76" t="e">
+      <c r="Z63" s="75" t="e">
         <f>VLOOKUP(A63,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA63" s="76" t="e">
+      <c r="AA63" s="75" t="e">
         <f>VLOOKUP(A63,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -7499,35 +7688,35 @@
       <c r="P64" s="13"/>
       <c r="Q64" s="62"/>
       <c r="R64" s="62"/>
-      <c r="T64" s="75" t="str">
+      <c r="T64" s="74" t="str">
         <f t="shared" si="18"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 11:25:37-0600',mode:absolute,to:'2016-05-12 12:08:35-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U64" s="75" t="str">
+      <c r="U64" s="74" t="str">
         <f t="shared" si="21"/>
         <v>N</v>
       </c>
-      <c r="V64" s="75">
+      <c r="V64" s="74">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="W64" s="75">
+      <c r="W64" s="74">
         <f t="shared" si="5"/>
         <v>4.7100000000000003E-2</v>
       </c>
-      <c r="X64" s="75">
+      <c r="X64" s="74">
         <f t="shared" si="6"/>
         <v>23.334900000000001</v>
       </c>
-      <c r="Y64" s="75">
+      <c r="Y64" s="74">
         <f t="shared" si="7"/>
         <v>23.287800000000001</v>
       </c>
-      <c r="Z64" s="76" t="e">
+      <c r="Z64" s="75" t="e">
         <f>VLOOKUP(A64,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA64" s="76" t="e">
+      <c r="AA64" s="75" t="e">
         <f>VLOOKUP(A64,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -7583,35 +7772,35 @@
       <c r="P65" s="13"/>
       <c r="Q65" s="62"/>
       <c r="R65" s="62"/>
-      <c r="T65" s="75" t="str">
+      <c r="T65" s="74" t="str">
         <f t="shared" si="18"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 12:19:42-0600',mode:absolute,to:'2016-05-12 13:03:48-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U65" s="75" t="str">
+      <c r="U65" s="74" t="str">
         <f t="shared" si="21"/>
         <v>N</v>
       </c>
-      <c r="V65" s="75">
+      <c r="V65" s="74">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="W65" s="75">
+      <c r="W65" s="74">
         <f t="shared" si="5"/>
         <v>23.3004</v>
       </c>
-      <c r="X65" s="75">
+      <c r="X65" s="74">
         <f t="shared" si="6"/>
         <v>1.4500000000000001E-2</v>
       </c>
-      <c r="Y65" s="75">
+      <c r="Y65" s="74">
         <f t="shared" si="7"/>
         <v>23.285899999999998</v>
       </c>
-      <c r="Z65" s="76" t="e">
+      <c r="Z65" s="75" t="e">
         <f>VLOOKUP(A65,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA65" s="76" t="e">
+      <c r="AA65" s="75" t="e">
         <f>VLOOKUP(A65,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -7667,35 +7856,35 @@
       <c r="P66" s="13"/>
       <c r="Q66" s="62"/>
       <c r="R66" s="62"/>
-      <c r="T66" s="75" t="str">
+      <c r="T66" s="74" t="str">
         <f t="shared" si="18"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 11:37:13-0600',mode:absolute,to:'2016-05-12 12:21:47-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U66" s="75" t="str">
+      <c r="U66" s="74" t="str">
         <f t="shared" si="21"/>
         <v>N</v>
       </c>
-      <c r="V66" s="75">
+      <c r="V66" s="74">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="W66" s="75">
+      <c r="W66" s="74">
         <f t="shared" si="5"/>
         <v>4.6600000000000003E-2</v>
       </c>
-      <c r="X66" s="75">
+      <c r="X66" s="74">
         <f t="shared" si="6"/>
         <v>23.328900000000001</v>
       </c>
-      <c r="Y66" s="75">
+      <c r="Y66" s="74">
         <f t="shared" si="7"/>
         <v>23.282299999999999</v>
       </c>
-      <c r="Z66" s="76" t="e">
+      <c r="Z66" s="75" t="e">
         <f>VLOOKUP(A66,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA66" s="76" t="e">
+      <c r="AA66" s="75" t="e">
         <f>VLOOKUP(A66,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -7751,35 +7940,35 @@
       <c r="P67" s="13"/>
       <c r="Q67" s="62"/>
       <c r="R67" s="62"/>
-      <c r="T67" s="75" t="str">
+      <c r="T67" s="74" t="str">
         <f t="shared" ref="T67:T98" si="24">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E67-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I67+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B67&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 12:30:09-0600',mode:absolute,to:'2016-05-12 13:19:48-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U67" s="75" t="str">
+      <c r="U67" s="74" t="str">
         <f t="shared" si="21"/>
         <v>N</v>
       </c>
-      <c r="V67" s="75">
+      <c r="V67" s="74">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="W67" s="75">
+      <c r="W67" s="74">
         <f t="shared" ref="W67:W126" si="25">RIGHT(D67,LEN(D67)-4)/10000</f>
         <v>23.2986</v>
       </c>
-      <c r="X67" s="75">
+      <c r="X67" s="74">
         <f t="shared" ref="X67:X126" si="26">RIGHT(H67,LEN(H67)-4)/10000</f>
         <v>1.6299999999999999E-2</v>
       </c>
-      <c r="Y67" s="75">
+      <c r="Y67" s="74">
         <f t="shared" ref="Y67:Y126" si="27">ABS(X67-W67)</f>
         <v>23.282299999999999</v>
       </c>
-      <c r="Z67" s="76" t="e">
+      <c r="Z67" s="75" t="e">
         <f>VLOOKUP(A67,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA67" s="76" t="e">
+      <c r="AA67" s="75" t="e">
         <f>VLOOKUP(A67,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -7835,35 +8024,35 @@
       <c r="P68" s="13"/>
       <c r="Q68" s="62"/>
       <c r="R68" s="62"/>
-      <c r="T68" s="75" t="str">
+      <c r="T68" s="74" t="str">
         <f t="shared" si="24"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 11:53:28-0600',mode:absolute,to:'2016-05-12 12:37:21-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4014%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U68" s="75" t="str">
+      <c r="U68" s="74" t="str">
         <f t="shared" si="21"/>
         <v>N</v>
       </c>
-      <c r="V68" s="75">
+      <c r="V68" s="74">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="W68" s="75">
+      <c r="W68" s="74">
         <f t="shared" si="25"/>
         <v>4.5699999999999998E-2</v>
       </c>
-      <c r="X68" s="75">
+      <c r="X68" s="74">
         <f t="shared" si="26"/>
         <v>23.331</v>
       </c>
-      <c r="Y68" s="75">
+      <c r="Y68" s="74">
         <f t="shared" si="27"/>
         <v>23.285299999999999</v>
       </c>
-      <c r="Z68" s="76" t="e">
+      <c r="Z68" s="75" t="e">
         <f>VLOOKUP(A68,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA68" s="76" t="e">
+      <c r="AA68" s="75" t="e">
         <f>VLOOKUP(A68,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -7919,35 +8108,35 @@
       <c r="P69" s="13"/>
       <c r="Q69" s="62"/>
       <c r="R69" s="62"/>
-      <c r="T69" s="75" t="str">
+      <c r="T69" s="74" t="str">
         <f t="shared" si="24"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 12:53:26-0600',mode:absolute,to:'2016-05-12 13:34:02-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4013%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U69" s="75" t="str">
+      <c r="U69" s="74" t="str">
         <f t="shared" si="21"/>
         <v>N</v>
       </c>
-      <c r="V69" s="75">
+      <c r="V69" s="74">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="W69" s="75">
+      <c r="W69" s="74">
         <f t="shared" si="25"/>
         <v>23.2989</v>
       </c>
-      <c r="X69" s="75">
+      <c r="X69" s="74">
         <f t="shared" si="26"/>
         <v>1.29E-2</v>
       </c>
-      <c r="Y69" s="75">
+      <c r="Y69" s="74">
         <f t="shared" si="27"/>
         <v>23.286000000000001</v>
       </c>
-      <c r="Z69" s="76" t="e">
+      <c r="Z69" s="75" t="e">
         <f>VLOOKUP(A69,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA69" s="76" t="e">
+      <c r="AA69" s="75" t="e">
         <f>VLOOKUP(A69,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -8003,35 +8192,35 @@
       <c r="P70" s="13"/>
       <c r="Q70" s="62"/>
       <c r="R70" s="62"/>
-      <c r="T70" s="75" t="str">
+      <c r="T70" s="74" t="str">
         <f t="shared" si="24"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 12:07:21-0600',mode:absolute,to:'2016-05-12 12:53:43-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4025%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U70" s="75" t="str">
+      <c r="U70" s="74" t="str">
         <f t="shared" si="21"/>
         <v>N</v>
       </c>
-      <c r="V70" s="75">
+      <c r="V70" s="74">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="W70" s="75">
+      <c r="W70" s="74">
         <f t="shared" si="25"/>
         <v>4.3799999999999999E-2</v>
       </c>
-      <c r="X70" s="75">
+      <c r="X70" s="74">
         <f t="shared" si="26"/>
         <v>23.331399999999999</v>
       </c>
-      <c r="Y70" s="75">
+      <c r="Y70" s="74">
         <f t="shared" si="27"/>
         <v>23.287599999999998</v>
       </c>
-      <c r="Z70" s="76" t="e">
+      <c r="Z70" s="75" t="e">
         <f>VLOOKUP(A70,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA70" s="76" t="e">
+      <c r="AA70" s="75" t="e">
         <f>VLOOKUP(A70,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -8087,35 +8276,35 @@
       <c r="P71" s="13"/>
       <c r="Q71" s="62"/>
       <c r="R71" s="62"/>
-      <c r="T71" s="75" t="str">
+      <c r="T71" s="74" t="str">
         <f t="shared" si="24"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 12:57:38-0600',mode:absolute,to:'2016-05-12 13:51:17-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4026%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U71" s="75" t="str">
+      <c r="U71" s="74" t="str">
         <f t="shared" si="21"/>
         <v>N</v>
       </c>
-      <c r="V71" s="75">
+      <c r="V71" s="74">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="W71" s="75">
+      <c r="W71" s="74">
         <f t="shared" si="25"/>
         <v>23.2988</v>
       </c>
-      <c r="X71" s="75">
+      <c r="X71" s="74">
         <f t="shared" si="26"/>
         <v>1.54E-2</v>
       </c>
-      <c r="Y71" s="75">
+      <c r="Y71" s="74">
         <f t="shared" si="27"/>
         <v>23.2834</v>
       </c>
-      <c r="Z71" s="76" t="e">
+      <c r="Z71" s="75" t="e">
         <f>VLOOKUP(A71,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA71" s="76" t="e">
+      <c r="AA71" s="75" t="e">
         <f>VLOOKUP(A71,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -8171,35 +8360,35 @@
       <c r="P72" s="13"/>
       <c r="Q72" s="62"/>
       <c r="R72" s="62"/>
-      <c r="T72" s="75" t="str">
+      <c r="T72" s="74" t="str">
         <f t="shared" si="24"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 12:21:51-0600',mode:absolute,to:'2016-05-12 13:06:58-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U72" s="75" t="str">
+      <c r="U72" s="74" t="str">
         <f t="shared" si="21"/>
         <v>N</v>
       </c>
-      <c r="V72" s="75">
+      <c r="V72" s="74">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="W72" s="75">
+      <c r="W72" s="74">
         <f t="shared" si="25"/>
         <v>4.6600000000000003E-2</v>
       </c>
-      <c r="X72" s="75">
+      <c r="X72" s="74">
         <f t="shared" si="26"/>
         <v>23.333200000000001</v>
       </c>
-      <c r="Y72" s="75">
+      <c r="Y72" s="74">
         <f t="shared" si="27"/>
         <v>23.2866</v>
       </c>
-      <c r="Z72" s="76" t="e">
+      <c r="Z72" s="75" t="e">
         <f>VLOOKUP(A72,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA72" s="76" t="e">
+      <c r="AA72" s="75" t="e">
         <f>VLOOKUP(A72,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -8255,35 +8444,35 @@
       <c r="P73" s="13"/>
       <c r="Q73" s="62"/>
       <c r="R73" s="62"/>
-      <c r="T73" s="75" t="str">
+      <c r="T73" s="74" t="str">
         <f t="shared" si="24"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 13:20:43-0600',mode:absolute,to:'2016-05-12 14:05:41-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U73" s="75" t="str">
+      <c r="U73" s="74" t="str">
         <f t="shared" si="21"/>
         <v>N</v>
       </c>
-      <c r="V73" s="75">
+      <c r="V73" s="74">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="W73" s="75">
+      <c r="W73" s="74">
         <f t="shared" si="25"/>
         <v>23.300999999999998</v>
       </c>
-      <c r="X73" s="75">
+      <c r="X73" s="74">
         <f t="shared" si="26"/>
         <v>1.49E-2</v>
       </c>
-      <c r="Y73" s="75">
+      <c r="Y73" s="74">
         <f t="shared" si="27"/>
         <v>23.286099999999998</v>
       </c>
-      <c r="Z73" s="76">
+      <c r="Z73" s="75">
         <f>VLOOKUP(A73,Enforcements!$C$3:$J$26,8,0)</f>
         <v>183829</v>
       </c>
-      <c r="AA73" s="76" t="str">
+      <c r="AA73" s="75" t="str">
         <f>VLOOKUP(A73,Enforcements!$C$3:$J$26,3,0)</f>
         <v>PERMANENT SPEED RESTRICTION</v>
       </c>
@@ -8339,35 +8528,35 @@
       <c r="P74" s="13"/>
       <c r="Q74" s="62"/>
       <c r="R74" s="62"/>
-      <c r="T74" s="75" t="str">
+      <c r="T74" s="74" t="str">
         <f t="shared" si="24"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 12:36:02-0600',mode:absolute,to:'2016-05-12 13:21:58-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U74" s="75" t="str">
+      <c r="U74" s="74" t="str">
         <f t="shared" si="21"/>
         <v>N</v>
       </c>
-      <c r="V74" s="75">
+      <c r="V74" s="74">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="W74" s="75">
+      <c r="W74" s="74">
         <f t="shared" si="25"/>
         <v>4.5100000000000001E-2</v>
       </c>
-      <c r="X74" s="75">
+      <c r="X74" s="74">
         <f t="shared" si="26"/>
         <v>23.3322</v>
       </c>
-      <c r="Y74" s="75">
+      <c r="Y74" s="74">
         <f t="shared" si="27"/>
         <v>23.287099999999999</v>
       </c>
-      <c r="Z74" s="76" t="e">
+      <c r="Z74" s="75" t="e">
         <f>VLOOKUP(A74,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA74" s="76" t="e">
+      <c r="AA74" s="75" t="e">
         <f>VLOOKUP(A74,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -8423,35 +8612,35 @@
       <c r="P75" s="13"/>
       <c r="Q75" s="62"/>
       <c r="R75" s="62"/>
-      <c r="T75" s="75" t="str">
+      <c r="T75" s="74" t="str">
         <f t="shared" si="24"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 13:30:18-0600',mode:absolute,to:'2016-05-12 14:19:51-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U75" s="75" t="str">
+      <c r="U75" s="74" t="str">
         <f t="shared" si="21"/>
         <v>N</v>
       </c>
-      <c r="V75" s="75">
+      <c r="V75" s="74">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="W75" s="75">
+      <c r="W75" s="74">
         <f t="shared" si="25"/>
         <v>23.3001</v>
       </c>
-      <c r="X75" s="75">
+      <c r="X75" s="74">
         <f t="shared" si="26"/>
         <v>1.52E-2</v>
       </c>
-      <c r="Y75" s="75">
+      <c r="Y75" s="74">
         <f t="shared" si="27"/>
         <v>23.2849</v>
       </c>
-      <c r="Z75" s="76" t="e">
+      <c r="Z75" s="75" t="e">
         <f>VLOOKUP(A75,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA75" s="76" t="e">
+      <c r="AA75" s="75" t="e">
         <f>VLOOKUP(A75,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -8507,35 +8696,35 @@
       <c r="P76" s="13"/>
       <c r="Q76" s="62"/>
       <c r="R76" s="62"/>
-      <c r="T76" s="75" t="str">
+      <c r="T76" s="74" t="str">
         <f t="shared" si="24"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 12:52:58-0600',mode:absolute,to:'2016-05-12 13:38:04-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U76" s="75" t="str">
+      <c r="U76" s="74" t="str">
         <f t="shared" si="21"/>
         <v>N</v>
       </c>
-      <c r="V76" s="75">
+      <c r="V76" s="74">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="W76" s="75">
+      <c r="W76" s="74">
         <f t="shared" si="25"/>
         <v>4.4600000000000001E-2</v>
       </c>
-      <c r="X76" s="75">
+      <c r="X76" s="74">
         <f t="shared" si="26"/>
         <v>23.326799999999999</v>
       </c>
-      <c r="Y76" s="75">
+      <c r="Y76" s="74">
         <f t="shared" si="27"/>
         <v>23.2822</v>
       </c>
-      <c r="Z76" s="76" t="e">
+      <c r="Z76" s="75" t="e">
         <f>VLOOKUP(A76,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA76" s="76" t="e">
+      <c r="AA76" s="75" t="e">
         <f>VLOOKUP(A76,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -8591,35 +8780,35 @@
       <c r="P77" s="13"/>
       <c r="Q77" s="62"/>
       <c r="R77" s="62"/>
-      <c r="T77" s="75" t="str">
+      <c r="T77" s="74" t="str">
         <f t="shared" si="24"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 13:48:47-0600',mode:absolute,to:'2016-05-12 14:34:27-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U77" s="75" t="str">
+      <c r="U77" s="74" t="str">
         <f t="shared" si="21"/>
         <v>N</v>
       </c>
-      <c r="V77" s="75">
+      <c r="V77" s="74">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="W77" s="75">
+      <c r="W77" s="74">
         <f t="shared" si="25"/>
         <v>23.296399999999998</v>
       </c>
-      <c r="X77" s="75">
+      <c r="X77" s="74">
         <f t="shared" si="26"/>
         <v>1.9800000000000002E-2</v>
       </c>
-      <c r="Y77" s="75">
+      <c r="Y77" s="74">
         <f t="shared" si="27"/>
         <v>23.276599999999998</v>
       </c>
-      <c r="Z77" s="76" t="e">
+      <c r="Z77" s="75" t="e">
         <f>VLOOKUP(A77,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA77" s="76" t="e">
+      <c r="AA77" s="75" t="e">
         <f>VLOOKUP(A77,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -8675,35 +8864,35 @@
       <c r="P78" s="13"/>
       <c r="Q78" s="62"/>
       <c r="R78" s="62"/>
-      <c r="T78" s="75" t="str">
+      <c r="T78" s="74" t="str">
         <f t="shared" si="24"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 13:05:23-0600',mode:absolute,to:'2016-05-12 13:53:20-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U78" s="75" t="str">
+      <c r="U78" s="74" t="str">
         <f t="shared" si="21"/>
         <v>N</v>
       </c>
-      <c r="V78" s="75">
+      <c r="V78" s="74">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
-      <c r="W78" s="75">
+      <c r="W78" s="74">
         <f t="shared" si="25"/>
         <v>4.6199999999999998E-2</v>
       </c>
-      <c r="X78" s="75">
+      <c r="X78" s="74">
         <f t="shared" si="26"/>
         <v>23.331800000000001</v>
       </c>
-      <c r="Y78" s="75">
+      <c r="Y78" s="74">
         <f t="shared" si="27"/>
         <v>23.285600000000002</v>
       </c>
-      <c r="Z78" s="76" t="e">
+      <c r="Z78" s="75" t="e">
         <f>VLOOKUP(A78,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA78" s="76" t="e">
+      <c r="AA78" s="75" t="e">
         <f>VLOOKUP(A78,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -8759,35 +8948,35 @@
       <c r="P79" s="13"/>
       <c r="Q79" s="62"/>
       <c r="R79" s="62"/>
-      <c r="T79" s="75" t="str">
+      <c r="T79" s="74" t="str">
         <f t="shared" si="24"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 14:01:34-0600',mode:absolute,to:'2016-05-12 14:49:37-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U79" s="75" t="str">
+      <c r="U79" s="74" t="str">
         <f t="shared" si="21"/>
         <v>N</v>
       </c>
-      <c r="V79" s="75">
+      <c r="V79" s="74">
         <f t="shared" ref="V79:V92" si="28">VALUE(LEFT(A79,3))-VALUE(LEFT(A78,3))</f>
         <v>1</v>
       </c>
-      <c r="W79" s="75">
+      <c r="W79" s="74">
         <f t="shared" si="25"/>
         <v>23.300699999999999</v>
       </c>
-      <c r="X79" s="75">
+      <c r="X79" s="74">
         <f t="shared" si="26"/>
         <v>1.34E-2</v>
       </c>
-      <c r="Y79" s="75">
+      <c r="Y79" s="74">
         <f t="shared" si="27"/>
         <v>23.287299999999998</v>
       </c>
-      <c r="Z79" s="76" t="e">
+      <c r="Z79" s="75" t="e">
         <f>VLOOKUP(A79,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA79" s="76" t="e">
+      <c r="AA79" s="75" t="e">
         <f>VLOOKUP(A79,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -8843,35 +9032,35 @@
       <c r="P80" s="13"/>
       <c r="Q80" s="62"/>
       <c r="R80" s="62"/>
-      <c r="T80" s="75" t="str">
+      <c r="T80" s="74" t="str">
         <f t="shared" si="24"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 13:20:58-0600',mode:absolute,to:'2016-05-12 14:07:29-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U80" s="75" t="str">
+      <c r="U80" s="74" t="str">
         <f t="shared" si="21"/>
         <v>N</v>
       </c>
-      <c r="V80" s="75">
+      <c r="V80" s="74">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="W80" s="75">
+      <c r="W80" s="74">
         <f t="shared" si="25"/>
         <v>4.7300000000000002E-2</v>
       </c>
-      <c r="X80" s="75">
+      <c r="X80" s="74">
         <f t="shared" si="26"/>
         <v>23.3323</v>
       </c>
-      <c r="Y80" s="75">
+      <c r="Y80" s="74">
         <f t="shared" si="27"/>
         <v>23.285</v>
       </c>
-      <c r="Z80" s="76" t="e">
+      <c r="Z80" s="75" t="e">
         <f>VLOOKUP(A80,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA80" s="76" t="e">
+      <c r="AA80" s="75" t="e">
         <f>VLOOKUP(A80,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -8927,35 +9116,35 @@
       <c r="P81" s="13"/>
       <c r="Q81" s="62"/>
       <c r="R81" s="62"/>
-      <c r="T81" s="75" t="str">
+      <c r="T81" s="74" t="str">
         <f t="shared" si="24"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 14:10:12-0600',mode:absolute,to:'2016-05-12 15:06:42-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U81" s="75" t="str">
+      <c r="U81" s="74" t="str">
         <f t="shared" si="21"/>
         <v>N</v>
       </c>
-      <c r="V81" s="75">
+      <c r="V81" s="74">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="W81" s="75">
+      <c r="W81" s="74">
         <f t="shared" si="25"/>
         <v>23.2989</v>
       </c>
-      <c r="X81" s="75">
+      <c r="X81" s="74">
         <f t="shared" si="26"/>
         <v>1.47E-2</v>
       </c>
-      <c r="Y81" s="75">
+      <c r="Y81" s="74">
         <f t="shared" si="27"/>
         <v>23.284199999999998</v>
       </c>
-      <c r="Z81" s="76" t="e">
+      <c r="Z81" s="75" t="e">
         <f>VLOOKUP(A81,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA81" s="76" t="e">
+      <c r="AA81" s="75" t="e">
         <f>VLOOKUP(A81,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -9011,35 +9200,35 @@
       <c r="P82" s="13"/>
       <c r="Q82" s="62"/>
       <c r="R82" s="62"/>
-      <c r="T82" s="75" t="str">
+      <c r="T82" s="74" t="str">
         <f t="shared" si="24"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 13:39:01-0600',mode:absolute,to:'2016-05-12 14:21:47-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4014%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U82" s="75" t="str">
+      <c r="U82" s="74" t="str">
         <f t="shared" si="21"/>
         <v>N</v>
       </c>
-      <c r="V82" s="75">
+      <c r="V82" s="74">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="W82" s="75">
+      <c r="W82" s="74">
         <f t="shared" si="25"/>
         <v>4.1300000000000003E-2</v>
       </c>
-      <c r="X82" s="75">
+      <c r="X82" s="74">
         <f t="shared" si="26"/>
         <v>23.327400000000001</v>
       </c>
-      <c r="Y82" s="75">
+      <c r="Y82" s="74">
         <f t="shared" si="27"/>
         <v>23.286100000000001</v>
       </c>
-      <c r="Z82" s="76" t="e">
+      <c r="Z82" s="75" t="e">
         <f>VLOOKUP(A82,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA82" s="76" t="e">
+      <c r="AA82" s="75" t="e">
         <f>VLOOKUP(A82,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -9095,35 +9284,35 @@
       <c r="P83" s="13"/>
       <c r="Q83" s="62"/>
       <c r="R83" s="62"/>
-      <c r="T83" s="75" t="str">
+      <c r="T83" s="74" t="str">
         <f t="shared" si="24"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 14:38:13-0600',mode:absolute,to:'2016-05-12 15:25:30-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4013%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U83" s="75" t="str">
+      <c r="U83" s="74" t="str">
         <f t="shared" si="21"/>
         <v>N</v>
       </c>
-      <c r="V83" s="75">
+      <c r="V83" s="74">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="W83" s="75">
+      <c r="W83" s="74">
         <f t="shared" si="25"/>
         <v>23.297999999999998</v>
       </c>
-      <c r="X83" s="75">
+      <c r="X83" s="74">
         <f t="shared" si="26"/>
         <v>1.4500000000000001E-2</v>
       </c>
-      <c r="Y83" s="75">
+      <c r="Y83" s="74">
         <f t="shared" si="27"/>
         <v>23.283499999999997</v>
       </c>
-      <c r="Z83" s="76" t="e">
+      <c r="Z83" s="75" t="e">
         <f>VLOOKUP(A83,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA83" s="76" t="e">
+      <c r="AA83" s="75" t="e">
         <f>VLOOKUP(A83,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -9179,35 +9368,35 @@
       <c r="P84" s="13"/>
       <c r="Q84" s="62"/>
       <c r="R84" s="62"/>
-      <c r="T84" s="75" t="str">
+      <c r="T84" s="74" t="str">
         <f t="shared" si="24"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 13:51:26-0600',mode:absolute,to:'2016-05-12 14:39:20-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4025%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U84" s="75" t="str">
+      <c r="U84" s="74" t="str">
         <f t="shared" si="21"/>
         <v>N</v>
       </c>
-      <c r="V84" s="75">
+      <c r="V84" s="74">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="W84" s="75">
+      <c r="W84" s="74">
         <f t="shared" si="25"/>
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="X84" s="75">
+      <c r="X84" s="74">
         <f t="shared" si="26"/>
         <v>23.329499999999999</v>
       </c>
-      <c r="Y84" s="75">
+      <c r="Y84" s="74">
         <f t="shared" si="27"/>
         <v>23.281500000000001</v>
       </c>
-      <c r="Z84" s="76" t="e">
+      <c r="Z84" s="75" t="e">
         <f>VLOOKUP(A84,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA84" s="76" t="e">
+      <c r="AA84" s="75" t="e">
         <f>VLOOKUP(A84,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -9238,7 +9427,7 @@
         <v>113</v>
       </c>
       <c r="I85" s="30">
-        <v>42502.691782407404</v>
+        <v>42502.658101851855</v>
       </c>
       <c r="J85" s="61">
         <v>5</v>
@@ -9253,47 +9442,44 @@
       </c>
       <c r="M85" s="12">
         <f t="shared" si="23"/>
-        <v>7.9374999993888196E-2</v>
+        <v>4.5694444444961846E-2</v>
       </c>
       <c r="N85" s="13">
         <f t="shared" si="29"/>
-        <v>114.299999991199</v>
+        <v>65.800000000745058</v>
       </c>
       <c r="O85" s="13"/>
       <c r="P85" s="13"/>
       <c r="Q85" s="62"/>
-      <c r="R85" s="62" t="s">
-        <v>405</v>
-      </c>
-      <c r="T85" s="75" t="str">
+      <c r="R85" s="62"/>
+      <c r="T85" s="74" t="str">
         <f t="shared" si="24"/>
-        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 14:39:40-0600',mode:absolute,to:'2016-05-12 16:37:10-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4026%22')),sort:!(Time,asc))</v>
-      </c>
-      <c r="U85" s="75" t="str">
+        <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 14:39:40-0600',mode:absolute,to:'2016-05-12 15:48:40-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4026%22')),sort:!(Time,asc))</v>
+      </c>
+      <c r="U85" s="74" t="str">
         <f t="shared" si="21"/>
-        <v>Y</v>
-      </c>
-      <c r="V85" s="75">
+        <v>N</v>
+      </c>
+      <c r="V85" s="74">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="W85" s="75">
+      <c r="W85" s="74">
         <f t="shared" si="25"/>
         <v>23.299399999999999</v>
       </c>
-      <c r="X85" s="75">
-        <f t="shared" si="26"/>
-        <v>23.297499999999999</v>
-      </c>
-      <c r="Y85" s="75">
+      <c r="X85" s="74">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="Y85" s="74">
         <f t="shared" si="27"/>
-        <v>1.8999999999991246E-3</v>
-      </c>
-      <c r="Z85" s="76">
+        <v>23.284399999999998</v>
+      </c>
+      <c r="Z85" s="75">
         <f>VLOOKUP(A85,Enforcements!$C$3:$J$26,8,0)</f>
         <v>108954</v>
       </c>
-      <c r="AA85" s="76" t="str">
+      <c r="AA85" s="75" t="str">
         <f>VLOOKUP(A85,Enforcements!$C$3:$J$26,3,0)</f>
         <v>GRADE CROSSING</v>
       </c>
@@ -9349,35 +9535,35 @@
       <c r="P86" s="13"/>
       <c r="Q86" s="62"/>
       <c r="R86" s="62"/>
-      <c r="T86" s="75" t="str">
+      <c r="T86" s="74" t="str">
         <f t="shared" si="24"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 14:07:49-0600',mode:absolute,to:'2016-05-12 14:51:53-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U86" s="75" t="str">
+      <c r="U86" s="74" t="str">
         <f t="shared" si="21"/>
         <v>N</v>
       </c>
-      <c r="V86" s="75">
+      <c r="V86" s="74">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="W86" s="75">
+      <c r="W86" s="74">
         <f t="shared" si="25"/>
         <v>4.5100000000000001E-2</v>
       </c>
-      <c r="X86" s="75">
+      <c r="X86" s="74">
         <f t="shared" si="26"/>
         <v>23.328399999999998</v>
       </c>
-      <c r="Y86" s="75">
+      <c r="Y86" s="74">
         <f t="shared" si="27"/>
         <v>23.283299999999997</v>
       </c>
-      <c r="Z86" s="76" t="e">
+      <c r="Z86" s="75" t="e">
         <f>VLOOKUP(A86,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA86" s="76" t="e">
+      <c r="AA86" s="75" t="e">
         <f>VLOOKUP(A86,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -9433,35 +9619,35 @@
       <c r="P87" s="13"/>
       <c r="Q87" s="62"/>
       <c r="R87" s="62"/>
-      <c r="T87" s="75" t="str">
+      <c r="T87" s="74" t="str">
         <f t="shared" si="24"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 15:02:26-0600',mode:absolute,to:'2016-05-12 15:57:45-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U87" s="75" t="str">
+      <c r="U87" s="74" t="str">
         <f t="shared" si="21"/>
         <v>N</v>
       </c>
-      <c r="V87" s="75">
+      <c r="V87" s="74">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="W87" s="75">
+      <c r="W87" s="74">
         <f t="shared" si="25"/>
         <v>23.2988</v>
       </c>
-      <c r="X87" s="75">
+      <c r="X87" s="74">
         <f t="shared" si="26"/>
         <v>1.5599999999999999E-2</v>
       </c>
-      <c r="Y87" s="75">
+      <c r="Y87" s="74">
         <f t="shared" si="27"/>
         <v>23.283200000000001</v>
       </c>
-      <c r="Z87" s="76">
+      <c r="Z87" s="75">
         <f>VLOOKUP(A87,Enforcements!$C$3:$J$26,8,0)</f>
         <v>228668</v>
       </c>
-      <c r="AA87" s="76" t="str">
+      <c r="AA87" s="75" t="str">
         <f>VLOOKUP(A87,Enforcements!$C$3:$J$26,3,0)</f>
         <v>PERMANENT SPEED RESTRICTION</v>
       </c>
@@ -9517,35 +9703,35 @@
       <c r="P88" s="13"/>
       <c r="Q88" s="62"/>
       <c r="R88" s="62"/>
-      <c r="T88" s="75" t="str">
+      <c r="T88" s="74" t="str">
         <f t="shared" si="24"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 14:21:33-0600',mode:absolute,to:'2016-05-12 15:10:15-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U88" s="75" t="str">
+      <c r="U88" s="74" t="str">
         <f t="shared" si="21"/>
         <v>N</v>
       </c>
-      <c r="V88" s="75">
+      <c r="V88" s="74">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="W88" s="75">
+      <c r="W88" s="74">
         <f t="shared" si="25"/>
         <v>4.7800000000000002E-2</v>
       </c>
-      <c r="X88" s="75">
+      <c r="X88" s="74">
         <f t="shared" si="26"/>
         <v>23.3338</v>
       </c>
-      <c r="Y88" s="75">
+      <c r="Y88" s="74">
         <f t="shared" si="27"/>
         <v>23.286000000000001</v>
       </c>
-      <c r="Z88" s="76" t="e">
+      <c r="Z88" s="75" t="e">
         <f>VLOOKUP(A88,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA88" s="76" t="e">
+      <c r="AA88" s="75" t="e">
         <f>VLOOKUP(A88,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -9601,35 +9787,35 @@
       <c r="P89" s="13"/>
       <c r="Q89" s="62"/>
       <c r="R89" s="62"/>
-      <c r="T89" s="75" t="str">
+      <c r="T89" s="74" t="str">
         <f t="shared" si="24"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 15:17:44-0600',mode:absolute,to:'2016-05-12 16:10:47-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U89" s="75" t="str">
+      <c r="U89" s="74" t="str">
         <f t="shared" si="21"/>
         <v>N</v>
       </c>
-      <c r="V89" s="75">
+      <c r="V89" s="74">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="W89" s="75">
+      <c r="W89" s="74">
         <f t="shared" si="25"/>
         <v>23.299399999999999</v>
       </c>
-      <c r="X89" s="75">
+      <c r="X89" s="74">
         <f t="shared" si="26"/>
         <v>1.47E-2</v>
       </c>
-      <c r="Y89" s="75">
+      <c r="Y89" s="74">
         <f t="shared" si="27"/>
         <v>23.284699999999997</v>
       </c>
-      <c r="Z89" s="76" t="e">
+      <c r="Z89" s="75" t="e">
         <f>VLOOKUP(A89,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA89" s="76" t="e">
+      <c r="AA89" s="75" t="e">
         <f>VLOOKUP(A89,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -9685,35 +9871,35 @@
       <c r="P90" s="13"/>
       <c r="Q90" s="62"/>
       <c r="R90" s="62"/>
-      <c r="T90" s="75" t="str">
+      <c r="T90" s="74" t="str">
         <f t="shared" si="24"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 14:37:13-0600',mode:absolute,to:'2016-05-12 15:28:49-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U90" s="75" t="str">
+      <c r="U90" s="74" t="str">
         <f t="shared" si="21"/>
         <v>N</v>
       </c>
-      <c r="V90" s="75">
+      <c r="V90" s="74">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="W90" s="75">
+      <c r="W90" s="74">
         <f t="shared" si="25"/>
         <v>5.11E-2</v>
       </c>
-      <c r="X90" s="75">
+      <c r="X90" s="74">
         <f t="shared" si="26"/>
         <v>23.333200000000001</v>
       </c>
-      <c r="Y90" s="75">
+      <c r="Y90" s="74">
         <f t="shared" si="27"/>
         <v>23.2821</v>
       </c>
-      <c r="Z90" s="76" t="e">
+      <c r="Z90" s="75" t="e">
         <f>VLOOKUP(A90,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA90" s="76" t="e">
+      <c r="AA90" s="75" t="e">
         <f>VLOOKUP(A90,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -9769,35 +9955,35 @@
       <c r="P91" s="13"/>
       <c r="Q91" s="62"/>
       <c r="R91" s="62"/>
-      <c r="T91" s="75" t="str">
+      <c r="T91" s="74" t="str">
         <f t="shared" si="24"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 15:32:02-0600',mode:absolute,to:'2016-05-12 16:28:26-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U91" s="75" t="str">
+      <c r="U91" s="74" t="str">
         <f t="shared" si="21"/>
         <v>N</v>
       </c>
-      <c r="V91" s="75">
+      <c r="V91" s="74">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="W91" s="75">
+      <c r="W91" s="74">
         <f t="shared" si="25"/>
         <v>23.298400000000001</v>
       </c>
-      <c r="X91" s="75">
+      <c r="X91" s="74">
         <f t="shared" si="26"/>
         <v>1.3899999999999999E-2</v>
       </c>
-      <c r="Y91" s="75">
+      <c r="Y91" s="74">
         <f t="shared" si="27"/>
         <v>23.284500000000001</v>
       </c>
-      <c r="Z91" s="76">
+      <c r="Z91" s="75">
         <f>VLOOKUP(A91,Enforcements!$C$3:$J$26,8,0)</f>
         <v>4677</v>
       </c>
-      <c r="AA91" s="76" t="str">
+      <c r="AA91" s="75" t="str">
         <f>VLOOKUP(A91,Enforcements!$C$3:$J$26,3,0)</f>
         <v>PERMANENT SPEED RESTRICTION</v>
       </c>
@@ -9853,35 +10039,35 @@
       <c r="P92" s="13"/>
       <c r="Q92" s="62"/>
       <c r="R92" s="62"/>
-      <c r="T92" s="75" t="str">
+      <c r="T92" s="74" t="str">
         <f t="shared" si="24"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 14:55:49-0600',mode:absolute,to:'2016-05-12 15:41:16-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U92" s="75" t="str">
+      <c r="U92" s="74" t="str">
         <f t="shared" si="21"/>
         <v>N</v>
       </c>
-      <c r="V92" s="75">
+      <c r="V92" s="74">
         <f t="shared" si="28"/>
         <v>1</v>
       </c>
-      <c r="W92" s="75">
+      <c r="W92" s="74">
         <f t="shared" si="25"/>
         <v>4.5699999999999998E-2</v>
       </c>
-      <c r="X92" s="75">
+      <c r="X92" s="74">
         <f t="shared" si="26"/>
         <v>23.333200000000001</v>
       </c>
-      <c r="Y92" s="75">
+      <c r="Y92" s="74">
         <f t="shared" si="27"/>
         <v>23.287500000000001</v>
       </c>
-      <c r="Z92" s="76" t="e">
+      <c r="Z92" s="75" t="e">
         <f>VLOOKUP(A92,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA92" s="76" t="e">
+      <c r="AA92" s="75" t="e">
         <f>VLOOKUP(A92,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -9937,35 +10123,35 @@
       <c r="P93" s="13"/>
       <c r="Q93" s="62"/>
       <c r="R93" s="62"/>
-      <c r="T93" s="75" t="str">
+      <c r="T93" s="74" t="str">
         <f t="shared" si="24"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 15:47:58-0600',mode:absolute,to:'2016-05-12 16:42:25-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U93" s="75" t="str">
+      <c r="U93" s="74" t="str">
         <f t="shared" si="21"/>
         <v>N</v>
       </c>
-      <c r="V93" s="75">
+      <c r="V93" s="74">
         <f t="shared" ref="V93:V95" si="30">VALUE(LEFT(A93,3))-VALUE(LEFT(A92,3))</f>
         <v>1</v>
       </c>
-      <c r="W93" s="75">
+      <c r="W93" s="74">
         <f>RIGHT(D93,LEN(D93)-4)/10000</f>
         <v>23.3017</v>
       </c>
-      <c r="X93" s="75">
+      <c r="X93" s="74">
         <f>RIGHT(H93,LEN(H93)-4)/10000</f>
         <v>1.4500000000000001E-2</v>
       </c>
-      <c r="Y93" s="75">
+      <c r="Y93" s="74">
         <f>ABS(X93-W93)</f>
         <v>23.287199999999999</v>
       </c>
-      <c r="Z93" s="76" t="e">
+      <c r="Z93" s="75" t="e">
         <f>VLOOKUP(A93,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA93" s="76" t="e">
+      <c r="AA93" s="75" t="e">
         <f>VLOOKUP(A93,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -10023,36 +10209,36 @@
         <v>396</v>
       </c>
       <c r="R94" s="62" t="s">
-        <v>400</v>
-      </c>
-      <c r="T94" s="75" t="str">
+        <v>403</v>
+      </c>
+      <c r="T94" s="74" t="str">
         <f t="shared" si="24"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 18:01:45-0600',mode:absolute,to:'2016-05-12 18:25:20-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U94" s="75" t="str">
+      <c r="U94" s="74" t="str">
         <f t="shared" ref="U94" si="31">IF(Y94&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
-      <c r="V94" s="75">
+      <c r="V94" s="74">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="W94" s="75">
+      <c r="W94" s="74">
         <v>23.298300000000001</v>
       </c>
-      <c r="X94" s="75">
+      <c r="X94" s="74">
         <f t="shared" si="26"/>
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="Y94" s="75">
+      <c r="Y94" s="74">
         <f t="shared" si="27"/>
         <v>23.285299999999999</v>
       </c>
-      <c r="Z94" s="76" t="e">
+      <c r="Z94" s="75" t="e">
         <f>VLOOKUP(A94,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA94" s="76" t="e">
+      <c r="AA94" s="75" t="e">
         <f>VLOOKUP(A94,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -10108,35 +10294,35 @@
       <c r="P95" s="13"/>
       <c r="Q95" s="62"/>
       <c r="R95" s="62"/>
-      <c r="T95" s="75" t="str">
+      <c r="T95" s="74" t="str">
         <f t="shared" si="24"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 15:10:09-0600',mode:absolute,to:'2016-05-12 15:58:30-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U95" s="75" t="str">
+      <c r="U95" s="74" t="str">
         <f>IF(Y95&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
-      <c r="V95" s="75">
+      <c r="V95" s="74">
         <f t="shared" si="30"/>
         <v>1</v>
       </c>
-      <c r="W95" s="75">
+      <c r="W95" s="74">
         <f t="shared" si="25"/>
         <v>4.7100000000000003E-2</v>
       </c>
-      <c r="X95" s="75">
+      <c r="X95" s="74">
         <f t="shared" si="26"/>
         <v>23.3307</v>
       </c>
-      <c r="Y95" s="75">
+      <c r="Y95" s="74">
         <f t="shared" si="27"/>
         <v>23.2836</v>
       </c>
-      <c r="Z95" s="76" t="e">
+      <c r="Z95" s="75" t="e">
         <f>VLOOKUP(A95,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA95" s="76" t="e">
+      <c r="AA95" s="75" t="e">
         <f>VLOOKUP(A95,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -10192,35 +10378,35 @@
       <c r="P96" s="13"/>
       <c r="Q96" s="62"/>
       <c r="R96" s="62"/>
-      <c r="T96" s="75" t="str">
+      <c r="T96" s="74" t="str">
         <f t="shared" si="24"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 16:02:39-0600',mode:absolute,to:'2016-05-12 16:59:53-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U96" s="75" t="str">
+      <c r="U96" s="74" t="str">
         <f>IF(Y96&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
-      <c r="V96" s="75">
+      <c r="V96" s="74">
         <f>VALUE(LEFT(A96,3))-VALUE(LEFT(A95,3))</f>
         <v>1</v>
       </c>
-      <c r="W96" s="75">
+      <c r="W96" s="74">
         <f t="shared" si="25"/>
         <v>23.296900000000001</v>
       </c>
-      <c r="X96" s="75">
+      <c r="X96" s="74">
         <f t="shared" si="26"/>
         <v>1.5800000000000002E-2</v>
       </c>
-      <c r="Y96" s="75">
+      <c r="Y96" s="74">
         <f t="shared" si="27"/>
         <v>23.281100000000002</v>
       </c>
-      <c r="Z96" s="76">
+      <c r="Z96" s="75">
         <f>VLOOKUP(A96,Enforcements!$C$3:$J$26,8,0)</f>
         <v>109135</v>
       </c>
-      <c r="AA96" s="76" t="str">
+      <c r="AA96" s="75" t="str">
         <f>VLOOKUP(A96,Enforcements!$C$3:$J$26,3,0)</f>
         <v>GRADE CROSSING</v>
       </c>
@@ -10276,35 +10462,35 @@
       <c r="P97" s="13"/>
       <c r="Q97" s="62"/>
       <c r="R97" s="62"/>
-      <c r="T97" s="75" t="str">
+      <c r="T97" s="74" t="str">
         <f t="shared" si="24"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 15:25:46-0600',mode:absolute,to:'2016-05-12 16:10:13-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4014%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U97" s="75" t="str">
+      <c r="U97" s="74" t="str">
         <f>IF(Y97&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
-      <c r="V97" s="75">
+      <c r="V97" s="74">
         <f>VALUE(LEFT(A97,3))-VALUE(LEFT(A96,3))</f>
         <v>1</v>
       </c>
-      <c r="W97" s="75">
+      <c r="W97" s="74">
         <f t="shared" si="25"/>
         <v>4.7300000000000002E-2</v>
       </c>
-      <c r="X97" s="75">
+      <c r="X97" s="74">
         <f t="shared" si="26"/>
         <v>23.3308</v>
       </c>
-      <c r="Y97" s="75">
+      <c r="Y97" s="74">
         <f t="shared" si="27"/>
         <v>23.2835</v>
       </c>
-      <c r="Z97" s="76" t="e">
+      <c r="Z97" s="75" t="e">
         <f>VLOOKUP(A97,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA97" s="76" t="e">
+      <c r="AA97" s="75" t="e">
         <f>VLOOKUP(A97,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -10360,35 +10546,35 @@
       <c r="P98" s="13"/>
       <c r="Q98" s="62"/>
       <c r="R98" s="62"/>
-      <c r="T98" s="75" t="str">
+      <c r="T98" s="74" t="str">
         <f t="shared" si="24"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 16:22:12-0600',mode:absolute,to:'2016-05-12 17:08:05-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4013%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U98" s="75" t="str">
+      <c r="U98" s="74" t="str">
         <f>IF(Y98&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
-      <c r="V98" s="75">
+      <c r="V98" s="74">
         <f>VALUE(LEFT(A98,3))-VALUE(LEFT(A97,3))</f>
         <v>1</v>
       </c>
-      <c r="W98" s="75">
+      <c r="W98" s="74">
         <f t="shared" si="25"/>
         <v>23.299299999999999</v>
       </c>
-      <c r="X98" s="75">
+      <c r="X98" s="74">
         <f t="shared" si="26"/>
         <v>1.2699999999999999E-2</v>
       </c>
-      <c r="Y98" s="75">
+      <c r="Y98" s="74">
         <f t="shared" si="27"/>
         <v>23.2866</v>
       </c>
-      <c r="Z98" s="76" t="e">
+      <c r="Z98" s="75" t="e">
         <f>VLOOKUP(A98,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA98" s="76" t="e">
+      <c r="AA98" s="75" t="e">
         <f>VLOOKUP(A98,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -10432,37 +10618,39 @@
         <f t="shared" si="29"/>
         <v>9.3166666652541608</v>
       </c>
-      <c r="Q99" s="62"/>
+      <c r="Q99" s="62" t="s">
+        <v>159</v>
+      </c>
       <c r="R99" s="62" t="s">
         <v>404</v>
       </c>
-      <c r="T99" s="75" t="e">
+      <c r="T99" s="74" t="e">
         <f t="shared" ref="T99:T101" si="34">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E99-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I99+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B99&amp;"%22')),sort:!(Time,asc))"</f>
         <v>#VALUE!</v>
       </c>
-      <c r="U99" s="75" t="str">
+      <c r="U99" s="74" t="str">
         <f t="shared" ref="U99:U100" si="35">IF(Y99&lt;23,"Y","N")</f>
         <v>Y</v>
       </c>
-      <c r="V99" s="75">
+      <c r="V99" s="74">
         <f t="shared" ref="V99:V102" si="36">VALUE(LEFT(A99,3))-VALUE(LEFT(A98,3))</f>
         <v>1</v>
       </c>
-      <c r="W99" s="75">
+      <c r="W99" s="74">
         <v>4.6199999999999998E-2</v>
       </c>
-      <c r="X99" s="75">
+      <c r="X99" s="74">
         <v>4.7800000000000002E-2</v>
       </c>
-      <c r="Y99" s="75">
+      <c r="Y99" s="74">
         <f t="shared" ref="Y99" si="37">ABS(X99-W99)</f>
         <v>1.6000000000000042E-3</v>
       </c>
-      <c r="Z99" s="76" t="e">
+      <c r="Z99" s="75" t="e">
         <f>VLOOKUP(A99,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA99" s="76" t="e">
+      <c r="AA99" s="75" t="e">
         <f>VLOOKUP(A99,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -10518,35 +10706,35 @@
       <c r="P100" s="13"/>
       <c r="Q100" s="62"/>
       <c r="R100" s="62"/>
-      <c r="T100" s="75" t="str">
+      <c r="T100" s="74" t="str">
         <f t="shared" si="34"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 16:35:20-0600',mode:absolute,to:'2016-05-12 17:32:46-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4026%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U100" s="75" t="str">
+      <c r="U100" s="74" t="str">
         <f t="shared" si="35"/>
         <v>N</v>
       </c>
-      <c r="V100" s="75">
+      <c r="V100" s="74">
         <f t="shared" si="36"/>
         <v>1</v>
       </c>
-      <c r="W100" s="75">
+      <c r="W100" s="74">
         <f t="shared" si="25"/>
         <v>23.2971</v>
       </c>
-      <c r="X100" s="75">
+      <c r="X100" s="74">
         <f t="shared" si="26"/>
         <v>0.10299999999999999</v>
       </c>
-      <c r="Y100" s="75">
+      <c r="Y100" s="74">
         <f t="shared" si="27"/>
         <v>23.194099999999999</v>
       </c>
-      <c r="Z100" s="76" t="e">
+      <c r="Z100" s="75" t="e">
         <f>VLOOKUP(A100,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA100" s="76" t="e">
+      <c r="AA100" s="75" t="e">
         <f>VLOOKUP(A100,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -10602,35 +10790,35 @@
       <c r="P101" s="13"/>
       <c r="Q101" s="62"/>
       <c r="R101" s="62"/>
-      <c r="T101" s="75" t="str">
+      <c r="T101" s="74" t="str">
         <f t="shared" si="34"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 15:58:48-0600',mode:absolute,to:'2016-05-12 16:48:39-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U101" s="75" t="str">
+      <c r="U101" s="74" t="str">
         <f t="shared" ref="U101:U108" si="38">IF(Y101&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
-      <c r="V101" s="75">
+      <c r="V101" s="74">
         <f t="shared" si="36"/>
         <v>1</v>
       </c>
-      <c r="W101" s="75">
+      <c r="W101" s="74">
         <f t="shared" si="25"/>
         <v>4.6699999999999998E-2</v>
       </c>
-      <c r="X101" s="75">
+      <c r="X101" s="74">
         <f t="shared" si="26"/>
         <v>23.331199999999999</v>
       </c>
-      <c r="Y101" s="75">
+      <c r="Y101" s="74">
         <f t="shared" si="27"/>
         <v>23.284499999999998</v>
       </c>
-      <c r="Z101" s="76" t="e">
+      <c r="Z101" s="75" t="e">
         <f>VLOOKUP(A101,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA101" s="76" t="e">
+      <c r="AA101" s="75" t="e">
         <f>VLOOKUP(A101,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -10686,35 +10874,35 @@
       <c r="P102" s="13"/>
       <c r="Q102" s="62"/>
       <c r="R102" s="62"/>
-      <c r="T102" s="75" t="str">
+      <c r="T102" s="74" t="str">
         <f t="shared" ref="T102:T107" si="39">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E102-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I102+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B102&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 16:54:15-0600',mode:absolute,to:'2016-05-12 17:42:42-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U102" s="75" t="str">
+      <c r="U102" s="74" t="str">
         <f t="shared" si="38"/>
         <v>N</v>
       </c>
-      <c r="V102" s="75">
+      <c r="V102" s="74">
         <f t="shared" si="36"/>
         <v>1</v>
       </c>
-      <c r="W102" s="75">
+      <c r="W102" s="74">
         <f t="shared" si="25"/>
         <v>23.3</v>
       </c>
-      <c r="X102" s="75">
+      <c r="X102" s="74">
         <f t="shared" si="26"/>
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="Y102" s="75">
+      <c r="Y102" s="74">
         <f t="shared" si="27"/>
         <v>23.282</v>
       </c>
-      <c r="Z102" s="76">
+      <c r="Z102" s="75">
         <f>VLOOKUP(A102,Enforcements!$C$3:$J$26,8,0)</f>
         <v>126678</v>
       </c>
-      <c r="AA102" s="76" t="str">
+      <c r="AA102" s="75" t="str">
         <f>VLOOKUP(A102,Enforcements!$C$3:$J$26,3,0)</f>
         <v>EQUIPMENT RESTRICTION</v>
       </c>
@@ -10770,35 +10958,35 @@
       <c r="P103" s="13"/>
       <c r="Q103" s="62"/>
       <c r="R103" s="62"/>
-      <c r="T103" s="75" t="str">
+      <c r="T103" s="74" t="str">
         <f t="shared" si="39"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 16:12:34-0600',mode:absolute,to:'2016-05-12 16:57:24-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U103" s="75" t="str">
+      <c r="U103" s="74" t="str">
         <f t="shared" si="38"/>
         <v>N</v>
       </c>
-      <c r="V103" s="75">
+      <c r="V103" s="74">
         <f>VALUE(LEFT(A103,3))-VALUE(LEFT(A102,3))</f>
         <v>1</v>
       </c>
-      <c r="W103" s="75">
+      <c r="W103" s="74">
         <f t="shared" si="25"/>
         <v>4.6600000000000003E-2</v>
       </c>
-      <c r="X103" s="75">
+      <c r="X103" s="74">
         <f t="shared" si="26"/>
         <v>23.330300000000001</v>
       </c>
-      <c r="Y103" s="75">
+      <c r="Y103" s="74">
         <f t="shared" si="27"/>
         <v>23.2837</v>
       </c>
-      <c r="Z103" s="76" t="e">
+      <c r="Z103" s="75" t="e">
         <f>VLOOKUP(A103,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA103" s="76" t="e">
+      <c r="AA103" s="75" t="e">
         <f>VLOOKUP(A103,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -10854,35 +11042,35 @@
       <c r="P104" s="13"/>
       <c r="Q104" s="62"/>
       <c r="R104" s="62"/>
-      <c r="T104" s="75" t="str">
+      <c r="T104" s="74" t="str">
         <f t="shared" si="39"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 17:04:59-0600',mode:absolute,to:'2016-05-12 17:50:32-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U104" s="75" t="str">
+      <c r="U104" s="74" t="str">
         <f t="shared" si="38"/>
         <v>N</v>
       </c>
-      <c r="V104" s="75">
+      <c r="V104" s="74">
         <f>VALUE(LEFT(A104,3))-VALUE(LEFT(A103,3))</f>
         <v>1</v>
       </c>
-      <c r="W104" s="75">
+      <c r="W104" s="74">
         <f t="shared" si="25"/>
         <v>23.298200000000001</v>
       </c>
-      <c r="X104" s="75">
+      <c r="X104" s="74">
         <f t="shared" si="26"/>
         <v>1.54E-2</v>
       </c>
-      <c r="Y104" s="75">
+      <c r="Y104" s="74">
         <f t="shared" si="27"/>
         <v>23.282800000000002</v>
       </c>
-      <c r="Z104" s="76" t="e">
+      <c r="Z104" s="75" t="e">
         <f>VLOOKUP(A104,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA104" s="76" t="e">
+      <c r="AA104" s="75" t="e">
         <f>VLOOKUP(A104,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -10938,35 +11126,35 @@
       <c r="P105" s="13"/>
       <c r="Q105" s="62"/>
       <c r="R105" s="62"/>
-      <c r="T105" s="75" t="str">
+      <c r="T105" s="74" t="str">
         <f t="shared" si="39"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 16:30:11-0600',mode:absolute,to:'2016-05-12 17:20:05-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U105" s="75" t="str">
+      <c r="U105" s="74" t="str">
         <f t="shared" si="38"/>
         <v>N</v>
       </c>
-      <c r="V105" s="75">
+      <c r="V105" s="74">
         <f>VALUE(LEFT(A105,3))-VALUE(LEFT(A104,3))</f>
         <v>1</v>
       </c>
-      <c r="W105" s="75">
+      <c r="W105" s="74">
         <f t="shared" si="25"/>
         <v>4.4400000000000002E-2</v>
       </c>
-      <c r="X105" s="75">
+      <c r="X105" s="74">
         <f t="shared" si="26"/>
         <v>23.329499999999999</v>
       </c>
-      <c r="Y105" s="75">
+      <c r="Y105" s="74">
         <f t="shared" si="27"/>
         <v>23.2851</v>
       </c>
-      <c r="Z105" s="76" t="e">
+      <c r="Z105" s="75" t="e">
         <f>VLOOKUP(A105,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA105" s="76" t="e">
+      <c r="AA105" s="75" t="e">
         <f>VLOOKUP(A105,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -11022,35 +11210,35 @@
       <c r="P106" s="13"/>
       <c r="Q106" s="62"/>
       <c r="R106" s="62"/>
-      <c r="T106" s="75" t="str">
+      <c r="T106" s="74" t="str">
         <f t="shared" si="39"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 17:27:54-0600',mode:absolute,to:'2016-05-12 18:12:58-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U106" s="75" t="str">
+      <c r="U106" s="74" t="str">
         <f t="shared" si="38"/>
         <v>N</v>
       </c>
-      <c r="V106" s="75">
+      <c r="V106" s="74">
         <f>VALUE(LEFT(A106,3))-VALUE(LEFT(A105,3))</f>
         <v>1</v>
       </c>
-      <c r="W106" s="75">
+      <c r="W106" s="74">
         <f t="shared" si="25"/>
         <v>23.297799999999999</v>
       </c>
-      <c r="X106" s="75">
+      <c r="X106" s="74">
         <f t="shared" si="26"/>
         <v>1.4500000000000001E-2</v>
       </c>
-      <c r="Y106" s="75">
+      <c r="Y106" s="74">
         <f t="shared" si="27"/>
         <v>23.283299999999997</v>
       </c>
-      <c r="Z106" s="76" t="e">
+      <c r="Z106" s="75" t="e">
         <f>VLOOKUP(A106,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA106" s="76" t="e">
+      <c r="AA106" s="75" t="e">
         <f>VLOOKUP(A106,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -11106,35 +11294,35 @@
       <c r="P107" s="13"/>
       <c r="Q107" s="62"/>
       <c r="R107" s="62"/>
-      <c r="T107" s="75" t="str">
+      <c r="T107" s="74" t="str">
         <f t="shared" si="39"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 16:42:13-0600',mode:absolute,to:'2016-05-12 17:38:17-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U107" s="75" t="str">
+      <c r="U107" s="74" t="str">
         <f t="shared" si="38"/>
         <v>N</v>
       </c>
-      <c r="V107" s="75">
+      <c r="V107" s="74">
         <f t="shared" ref="V107:V109" si="40">VALUE(LEFT(A107,3))-VALUE(LEFT(A106,3))</f>
         <v>1</v>
       </c>
-      <c r="W107" s="75">
+      <c r="W107" s="74">
         <f t="shared" si="25"/>
         <v>4.6399999999999997E-2</v>
       </c>
-      <c r="X107" s="75">
+      <c r="X107" s="74">
         <f t="shared" si="26"/>
         <v>23.331399999999999</v>
       </c>
-      <c r="Y107" s="75">
+      <c r="Y107" s="74">
         <f t="shared" si="27"/>
         <v>23.285</v>
       </c>
-      <c r="Z107" s="76" t="e">
+      <c r="Z107" s="75" t="e">
         <f>VLOOKUP(A107,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA107" s="76" t="e">
+      <c r="AA107" s="75" t="e">
         <f>VLOOKUP(A107,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -11188,38 +11376,40 @@
         <f t="shared" si="29"/>
         <v>46.283333339961246</v>
       </c>
-      <c r="Q108" s="62"/>
+      <c r="Q108" s="62" t="s">
+        <v>396</v>
+      </c>
       <c r="R108" s="62" t="s">
-        <v>400</v>
-      </c>
-      <c r="T108" s="75" t="str">
+        <v>399</v>
+      </c>
+      <c r="T108" s="74" t="str">
         <f t="shared" ref="T108:T116" si="41">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E108-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I108+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B108&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 17:34:04-0600',mode:absolute,to:'2016-05-12 17:53:16-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4009%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U108" s="75" t="str">
+      <c r="U108" s="74" t="str">
         <f t="shared" si="38"/>
         <v>N</v>
       </c>
-      <c r="V108" s="75">
+      <c r="V108" s="74">
         <f t="shared" si="40"/>
         <v>2</v>
       </c>
-      <c r="W108" s="75">
+      <c r="W108" s="74">
         <v>4.5100000000000001E-2</v>
       </c>
-      <c r="X108" s="75">
+      <c r="X108" s="74">
         <f t="shared" ref="X108:X116" si="42">RIGHT(H108,LEN(H108)-4)/10000</f>
         <v>23.3306</v>
       </c>
-      <c r="Y108" s="75">
+      <c r="Y108" s="74">
         <f t="shared" ref="Y108:Y116" si="43">ABS(X108-W108)</f>
         <v>23.285499999999999</v>
       </c>
-      <c r="Z108" s="76">
+      <c r="Z108" s="75">
         <f>VLOOKUP(A108,Enforcements!$C$3:$J$26,8,0)</f>
         <v>126585</v>
       </c>
-      <c r="AA108" s="76" t="str">
+      <c r="AA108" s="75" t="str">
         <f>VLOOKUP(A108,Enforcements!$C$3:$J$26,3,0)</f>
         <v>SIGNAL</v>
       </c>
@@ -11273,39 +11463,41 @@
         <f t="shared" si="29"/>
         <v>45.683333335909992</v>
       </c>
-      <c r="Q109" s="62"/>
+      <c r="Q109" s="62" t="s">
+        <v>396</v>
+      </c>
       <c r="R109" s="62" t="s">
-        <v>401</v>
-      </c>
-      <c r="T109" s="75" t="str">
+        <v>400</v>
+      </c>
+      <c r="T109" s="74" t="str">
         <f t="shared" si="41"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 17:55:37-0600',mode:absolute,to:'2016-05-12 18:44:35-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4010%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U109" s="75" t="str">
+      <c r="U109" s="74" t="str">
         <f t="shared" ref="U109:U116" si="44">IF(Y109&lt;23,"Y","N")</f>
         <v>Y</v>
       </c>
-      <c r="V109" s="75">
+      <c r="V109" s="74">
         <f t="shared" si="40"/>
         <v>1</v>
       </c>
-      <c r="W109" s="75">
+      <c r="W109" s="74">
         <f t="shared" ref="W109:W116" si="45">RIGHT(D109,LEN(D109)-4)/10000</f>
         <v>23.298500000000001</v>
       </c>
-      <c r="X109" s="75">
+      <c r="X109" s="74">
         <f t="shared" si="42"/>
         <v>12.785399999999999</v>
       </c>
-      <c r="Y109" s="75">
+      <c r="Y109" s="74">
         <f t="shared" si="43"/>
         <v>10.513100000000001</v>
       </c>
-      <c r="Z109" s="76" t="e">
+      <c r="Z109" s="75" t="e">
         <f>VLOOKUP(A109,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA109" s="76" t="e">
+      <c r="AA109" s="75" t="e">
         <f>VLOOKUP(A109,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -11361,35 +11553,35 @@
       <c r="P110" s="13"/>
       <c r="Q110" s="62"/>
       <c r="R110" s="62"/>
-      <c r="T110" s="75" t="str">
+      <c r="T110" s="74" t="str">
         <f t="shared" si="41"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 17:09:15-0600',mode:absolute,to:'2016-05-12 18:03:20-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4014%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U110" s="75" t="str">
+      <c r="U110" s="74" t="str">
         <f t="shared" si="44"/>
         <v>N</v>
       </c>
-      <c r="V110" s="75">
+      <c r="V110" s="74">
         <f t="shared" ref="V110:V116" si="46">VALUE(LEFT(A110,3))-VALUE(LEFT(A109,3))</f>
         <v>1</v>
       </c>
-      <c r="W110" s="75">
+      <c r="W110" s="74">
         <f t="shared" si="45"/>
         <v>4.3700000000000003E-2</v>
       </c>
-      <c r="X110" s="75">
+      <c r="X110" s="74">
         <f t="shared" si="42"/>
         <v>23.328900000000001</v>
       </c>
-      <c r="Y110" s="75">
+      <c r="Y110" s="74">
         <f t="shared" si="43"/>
         <v>23.2852</v>
       </c>
-      <c r="Z110" s="76" t="e">
+      <c r="Z110" s="75" t="e">
         <f>VLOOKUP(A110,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA110" s="76" t="e">
+      <c r="AA110" s="75" t="e">
         <f>VLOOKUP(A110,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -11445,35 +11637,35 @@
       <c r="P111" s="13"/>
       <c r="Q111" s="62"/>
       <c r="R111" s="62"/>
-      <c r="T111" s="75" t="str">
+      <c r="T111" s="74" t="str">
         <f t="shared" si="41"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 18:03:38-0600',mode:absolute,to:'2016-05-12 18:50:09-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4013%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U111" s="75" t="str">
+      <c r="U111" s="74" t="str">
         <f t="shared" si="44"/>
         <v>N</v>
       </c>
-      <c r="V111" s="75">
+      <c r="V111" s="74">
         <f t="shared" si="46"/>
         <v>1</v>
       </c>
-      <c r="W111" s="75">
+      <c r="W111" s="74">
         <f t="shared" si="45"/>
         <v>23.2971</v>
       </c>
-      <c r="X111" s="75">
+      <c r="X111" s="74">
         <f t="shared" si="42"/>
         <v>1.6500000000000001E-2</v>
       </c>
-      <c r="Y111" s="75">
+      <c r="Y111" s="74">
         <f t="shared" si="43"/>
         <v>23.2806</v>
       </c>
-      <c r="Z111" s="76" t="e">
+      <c r="Z111" s="75" t="e">
         <f>VLOOKUP(A111,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA111" s="76" t="e">
+      <c r="AA111" s="75" t="e">
         <f>VLOOKUP(A111,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -11529,35 +11721,35 @@
       <c r="P112" s="13"/>
       <c r="Q112" s="62"/>
       <c r="R112" s="62"/>
-      <c r="T112" s="75" t="str">
+      <c r="T112" s="74" t="str">
         <f t="shared" si="41"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 17:42:33-0600',mode:absolute,to:'2016-05-12 18:34:09-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U112" s="75" t="str">
+      <c r="U112" s="74" t="str">
         <f t="shared" si="44"/>
         <v>N</v>
       </c>
-      <c r="V112" s="75">
+      <c r="V112" s="74">
         <f t="shared" si="46"/>
         <v>3</v>
       </c>
-      <c r="W112" s="75">
+      <c r="W112" s="74">
         <f t="shared" si="45"/>
         <v>4.6600000000000003E-2</v>
       </c>
-      <c r="X112" s="75">
+      <c r="X112" s="74">
         <f t="shared" si="42"/>
         <v>23.3276</v>
       </c>
-      <c r="Y112" s="75">
+      <c r="Y112" s="74">
         <f t="shared" si="43"/>
         <v>23.280999999999999</v>
       </c>
-      <c r="Z112" s="76" t="e">
+      <c r="Z112" s="75" t="e">
         <f>VLOOKUP(A112,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA112" s="76" t="e">
+      <c r="AA112" s="75" t="e">
         <f>VLOOKUP(A112,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -11613,35 +11805,35 @@
       <c r="P113" s="13"/>
       <c r="Q113" s="62"/>
       <c r="R113" s="62"/>
-      <c r="T113" s="75" t="str">
+      <c r="T113" s="74" t="str">
         <f t="shared" si="41"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 18:34:08-0600',mode:absolute,to:'2016-05-12 19:24:44-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U113" s="75" t="str">
+      <c r="U113" s="74" t="str">
         <f t="shared" si="44"/>
         <v>N</v>
       </c>
-      <c r="V113" s="75">
+      <c r="V113" s="74">
         <f t="shared" si="46"/>
         <v>1</v>
       </c>
-      <c r="W113" s="75">
+      <c r="W113" s="74">
         <f t="shared" si="45"/>
         <v>23.297499999999999</v>
       </c>
-      <c r="X113" s="75">
+      <c r="X113" s="74">
         <f t="shared" si="42"/>
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="Y113" s="75">
+      <c r="Y113" s="74">
         <f t="shared" si="43"/>
         <v>23.285</v>
       </c>
-      <c r="Z113" s="76">
+      <c r="Z113" s="75">
         <f>VLOOKUP(A113,Enforcements!$C$3:$J$26,8,0)</f>
         <v>228668</v>
       </c>
-      <c r="AA113" s="76" t="str">
+      <c r="AA113" s="75" t="str">
         <f>VLOOKUP(A113,Enforcements!$C$3:$J$26,3,0)</f>
         <v>PERMANENT SPEED RESTRICTION</v>
       </c>
@@ -11695,38 +11887,40 @@
         <f>$M114*24*60</f>
         <v>43.600000008009374</v>
       </c>
-      <c r="Q114" s="62"/>
+      <c r="Q114" s="62" t="s">
+        <v>396</v>
+      </c>
       <c r="R114" s="62" t="s">
-        <v>402</v>
-      </c>
-      <c r="T114" s="75" t="str">
+        <v>401</v>
+      </c>
+      <c r="T114" s="74" t="str">
         <f t="shared" si="41"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 17:53:33-0600',mode:absolute,to:'2016-05-12 18:41:05-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4018%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U114" s="75" t="str">
+      <c r="U114" s="74" t="str">
         <f>IF(Y114&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
-      <c r="V114" s="75">
+      <c r="V114" s="74">
         <f t="shared" si="46"/>
         <v>1</v>
       </c>
-      <c r="W114" s="75">
+      <c r="W114" s="74">
         <f>RIGHT(D114,LEN(D114)-4)/10000</f>
         <v>4.3700000000000003E-2</v>
       </c>
-      <c r="X114" s="75">
+      <c r="X114" s="74">
         <v>23.323599999999999</v>
       </c>
-      <c r="Y114" s="75">
+      <c r="Y114" s="74">
         <f>ABS(X114-W114)</f>
         <v>23.279899999999998</v>
       </c>
-      <c r="Z114" s="76">
+      <c r="Z114" s="75">
         <f>VLOOKUP(A114,Enforcements!$C$3:$J$26,8,0)</f>
         <v>126585</v>
       </c>
-      <c r="AA114" s="76" t="str">
+      <c r="AA114" s="75" t="str">
         <f>VLOOKUP(A114,Enforcements!$C$3:$J$26,3,0)</f>
         <v>SIGNAL</v>
       </c>
@@ -11782,35 +11976,35 @@
       <c r="P115" s="13"/>
       <c r="Q115" s="62"/>
       <c r="R115" s="62"/>
-      <c r="T115" s="75" t="str">
+      <c r="T115" s="74" t="str">
         <f t="shared" si="41"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 18:47:53-0600',mode:absolute,to:'2016-05-12 19:35:03-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4017%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U115" s="75" t="str">
+      <c r="U115" s="74" t="str">
         <f t="shared" si="44"/>
         <v>N</v>
       </c>
-      <c r="V115" s="75">
+      <c r="V115" s="74">
         <f t="shared" si="46"/>
         <v>1</v>
       </c>
-      <c r="W115" s="75">
+      <c r="W115" s="74">
         <f t="shared" si="45"/>
         <v>23.292300000000001</v>
       </c>
-      <c r="X115" s="75">
+      <c r="X115" s="74">
         <f t="shared" si="42"/>
         <v>9.3100000000000002E-2</v>
       </c>
-      <c r="Y115" s="75">
+      <c r="Y115" s="74">
         <f t="shared" si="43"/>
         <v>23.199200000000001</v>
       </c>
-      <c r="Z115" s="76" t="e">
+      <c r="Z115" s="75" t="e">
         <f>VLOOKUP(A115,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA115" s="76" t="e">
+      <c r="AA115" s="75" t="e">
         <f>VLOOKUP(A115,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -11866,35 +12060,35 @@
       <c r="P116" s="13"/>
       <c r="Q116" s="62"/>
       <c r="R116" s="62"/>
-      <c r="T116" s="75" t="str">
+      <c r="T116" s="74" t="str">
         <f t="shared" si="41"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 18:13:16-0600',mode:absolute,to:'2016-05-12 18:54:03-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U116" s="75" t="str">
+      <c r="U116" s="74" t="str">
         <f t="shared" si="44"/>
         <v>N</v>
       </c>
-      <c r="V116" s="75">
+      <c r="V116" s="74">
         <f t="shared" si="46"/>
         <v>1</v>
       </c>
-      <c r="W116" s="75">
+      <c r="W116" s="74">
         <f t="shared" si="45"/>
         <v>4.5499999999999999E-2</v>
       </c>
-      <c r="X116" s="75">
+      <c r="X116" s="74">
         <f t="shared" si="42"/>
         <v>23.328900000000001</v>
       </c>
-      <c r="Y116" s="75">
+      <c r="Y116" s="74">
         <f t="shared" si="43"/>
         <v>23.2834</v>
       </c>
-      <c r="Z116" s="76" t="e">
+      <c r="Z116" s="75" t="e">
         <f>VLOOKUP(A116,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA116" s="76" t="e">
+      <c r="AA116" s="75" t="e">
         <f>VLOOKUP(A116,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -11950,35 +12144,35 @@
       <c r="P117" s="13"/>
       <c r="Q117" s="62"/>
       <c r="R117" s="62"/>
-      <c r="T117" s="75" t="str">
+      <c r="T117" s="74" t="str">
         <f t="shared" ref="T117:T139" si="48">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E117-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I117+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B117&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 19:01:06-0600',mode:absolute,to:'2016-05-12 19:49:20-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U117" s="75" t="str">
+      <c r="U117" s="74" t="str">
         <f t="shared" ref="U117:U139" si="49">IF(Y117&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
-      <c r="V117" s="75">
+      <c r="V117" s="74">
         <f t="shared" ref="V117:V139" si="50">VALUE(LEFT(A117,3))-VALUE(LEFT(A116,3))</f>
         <v>1</v>
       </c>
-      <c r="W117" s="75">
+      <c r="W117" s="74">
         <f t="shared" si="25"/>
         <v>23.297999999999998</v>
       </c>
-      <c r="X117" s="75">
+      <c r="X117" s="74">
         <f t="shared" si="26"/>
         <v>1.54E-2</v>
       </c>
-      <c r="Y117" s="75">
+      <c r="Y117" s="74">
         <f t="shared" si="27"/>
         <v>23.282599999999999</v>
       </c>
-      <c r="Z117" s="76" t="e">
+      <c r="Z117" s="75" t="e">
         <f>VLOOKUP(A117,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA117" s="76" t="e">
+      <c r="AA117" s="75" t="e">
         <f>VLOOKUP(A117,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -12034,35 +12228,35 @@
       <c r="P118" s="13"/>
       <c r="Q118" s="62"/>
       <c r="R118" s="62"/>
-      <c r="T118" s="75" t="str">
+      <c r="T118" s="74" t="str">
         <f t="shared" si="48"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 18:26:26-0600',mode:absolute,to:'2016-05-12 19:07:27-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U118" s="75" t="str">
+      <c r="U118" s="74" t="str">
         <f t="shared" si="49"/>
         <v>N</v>
       </c>
-      <c r="V118" s="75">
+      <c r="V118" s="74">
         <f t="shared" si="50"/>
         <v>1</v>
       </c>
-      <c r="W118" s="75">
+      <c r="W118" s="74">
         <f t="shared" si="25"/>
         <v>4.3099999999999999E-2</v>
       </c>
-      <c r="X118" s="75">
+      <c r="X118" s="74">
         <f t="shared" si="26"/>
         <v>23.333100000000002</v>
       </c>
-      <c r="Y118" s="75">
+      <c r="Y118" s="74">
         <f t="shared" si="27"/>
         <v>23.290000000000003</v>
       </c>
-      <c r="Z118" s="76" t="e">
+      <c r="Z118" s="75" t="e">
         <f>VLOOKUP(A118,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA118" s="76" t="e">
+      <c r="AA118" s="75" t="e">
         <f>VLOOKUP(A118,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -12118,35 +12312,35 @@
       <c r="P119" s="13"/>
       <c r="Q119" s="62"/>
       <c r="R119" s="62"/>
-      <c r="T119" s="75" t="str">
+      <c r="T119" s="74" t="str">
         <f t="shared" si="48"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 19:21:25-0600',mode:absolute,to:'2016-05-12 20:04:16-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U119" s="75" t="str">
+      <c r="U119" s="74" t="str">
         <f t="shared" si="49"/>
         <v>N</v>
       </c>
-      <c r="V119" s="75">
+      <c r="V119" s="74">
         <f t="shared" si="50"/>
         <v>1</v>
       </c>
-      <c r="W119" s="75">
+      <c r="W119" s="74">
         <f t="shared" si="25"/>
         <v>23.299399999999999</v>
       </c>
-      <c r="X119" s="75">
+      <c r="X119" s="74">
         <f t="shared" si="26"/>
         <v>1.47E-2</v>
       </c>
-      <c r="Y119" s="75">
+      <c r="Y119" s="74">
         <f t="shared" si="27"/>
         <v>23.284699999999997</v>
       </c>
-      <c r="Z119" s="76" t="e">
+      <c r="Z119" s="75" t="e">
         <f>VLOOKUP(A119,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA119" s="76" t="e">
+      <c r="AA119" s="75" t="e">
         <f>VLOOKUP(A119,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -12202,35 +12396,35 @@
       <c r="P120" s="13"/>
       <c r="Q120" s="62"/>
       <c r="R120" s="62"/>
-      <c r="T120" s="75" t="str">
+      <c r="T120" s="74" t="str">
         <f t="shared" si="48"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 18:51:29-0600',mode:absolute,to:'2016-05-12 19:37:25-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4014%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U120" s="75" t="str">
+      <c r="U120" s="74" t="str">
         <f t="shared" si="49"/>
         <v>N</v>
       </c>
-      <c r="V120" s="75">
+      <c r="V120" s="74">
         <f t="shared" si="50"/>
         <v>1</v>
       </c>
-      <c r="W120" s="75">
+      <c r="W120" s="74">
         <f t="shared" si="25"/>
         <v>4.6399999999999997E-2</v>
       </c>
-      <c r="X120" s="75">
+      <c r="X120" s="74">
         <f t="shared" si="26"/>
         <v>23.3355</v>
       </c>
-      <c r="Y120" s="75">
+      <c r="Y120" s="74">
         <f t="shared" si="27"/>
         <v>23.289100000000001</v>
       </c>
-      <c r="Z120" s="76" t="e">
+      <c r="Z120" s="75" t="e">
         <f>VLOOKUP(A120,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA120" s="76" t="e">
+      <c r="AA120" s="75" t="e">
         <f>VLOOKUP(A120,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -12286,35 +12480,35 @@
       <c r="P121" s="13"/>
       <c r="Q121" s="62"/>
       <c r="R121" s="62"/>
-      <c r="T121" s="75" t="str">
+      <c r="T121" s="74" t="str">
         <f t="shared" si="48"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 19:43:54-0600',mode:absolute,to:'2016-05-12 20:34:05-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4013%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U121" s="75" t="str">
+      <c r="U121" s="74" t="str">
         <f t="shared" si="49"/>
         <v>N</v>
       </c>
-      <c r="V121" s="75">
+      <c r="V121" s="74">
         <f t="shared" si="50"/>
         <v>1</v>
       </c>
-      <c r="W121" s="75">
+      <c r="W121" s="74">
         <f t="shared" si="25"/>
         <v>23.303000000000001</v>
       </c>
-      <c r="X121" s="75">
+      <c r="X121" s="74">
         <f t="shared" si="26"/>
         <v>1.67E-2</v>
       </c>
-      <c r="Y121" s="75">
+      <c r="Y121" s="74">
         <f t="shared" si="27"/>
         <v>23.286300000000001</v>
       </c>
-      <c r="Z121" s="76" t="e">
+      <c r="Z121" s="75" t="e">
         <f>VLOOKUP(A121,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA121" s="76" t="e">
+      <c r="AA121" s="75" t="e">
         <f>VLOOKUP(A121,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -12370,35 +12564,35 @@
       <c r="P122" s="13"/>
       <c r="Q122" s="62"/>
       <c r="R122" s="62"/>
-      <c r="T122" s="75" t="str">
+      <c r="T122" s="74" t="str">
         <f t="shared" si="48"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 19:24:55-0600',mode:absolute,to:'2016-05-12 20:06:31-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U122" s="75" t="str">
+      <c r="U122" s="74" t="str">
         <f t="shared" si="49"/>
         <v>N</v>
       </c>
-      <c r="V122" s="75">
+      <c r="V122" s="74">
         <f t="shared" si="50"/>
         <v>1</v>
       </c>
-      <c r="W122" s="75">
+      <c r="W122" s="74">
         <f t="shared" si="25"/>
         <v>4.6199999999999998E-2</v>
       </c>
-      <c r="X122" s="75">
+      <c r="X122" s="74">
         <f t="shared" si="26"/>
         <v>23.329499999999999</v>
       </c>
-      <c r="Y122" s="75">
+      <c r="Y122" s="74">
         <f t="shared" si="27"/>
         <v>23.283300000000001</v>
       </c>
-      <c r="Z122" s="76" t="e">
+      <c r="Z122" s="75" t="e">
         <f>VLOOKUP(A122,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA122" s="76" t="e">
+      <c r="AA122" s="75" t="e">
         <f>VLOOKUP(A122,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -12454,35 +12648,35 @@
       <c r="P123" s="13"/>
       <c r="Q123" s="62"/>
       <c r="R123" s="62"/>
-      <c r="T123" s="75" t="str">
+      <c r="T123" s="74" t="str">
         <f t="shared" si="48"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 20:17:06-0600',mode:absolute,to:'2016-05-12 21:05:59-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U123" s="75" t="str">
+      <c r="U123" s="74" t="str">
         <f t="shared" si="49"/>
         <v>N</v>
       </c>
-      <c r="V123" s="75">
+      <c r="V123" s="74">
         <f t="shared" si="50"/>
         <v>1</v>
       </c>
-      <c r="W123" s="75">
+      <c r="W123" s="74">
         <f t="shared" si="25"/>
         <v>23.2973</v>
       </c>
-      <c r="X123" s="75">
+      <c r="X123" s="74">
         <f t="shared" si="26"/>
         <v>1.61E-2</v>
       </c>
-      <c r="Y123" s="75">
+      <c r="Y123" s="74">
         <f t="shared" si="27"/>
         <v>23.281199999999998</v>
       </c>
-      <c r="Z123" s="76" t="e">
+      <c r="Z123" s="75" t="e">
         <f>VLOOKUP(A123,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA123" s="76" t="e">
+      <c r="AA123" s="75" t="e">
         <f>VLOOKUP(A123,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -12538,35 +12732,35 @@
       <c r="P124" s="13"/>
       <c r="Q124" s="62"/>
       <c r="R124" s="62"/>
-      <c r="T124" s="75" t="str">
+      <c r="T124" s="74" t="str">
         <f t="shared" si="48"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 19:49:59-0600',mode:absolute,to:'2016-05-12 20:36:32-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U124" s="75" t="str">
+      <c r="U124" s="74" t="str">
         <f t="shared" si="49"/>
         <v>N</v>
       </c>
-      <c r="V124" s="75">
+      <c r="V124" s="74">
         <f t="shared" si="50"/>
         <v>1</v>
       </c>
-      <c r="W124" s="75">
+      <c r="W124" s="74">
         <f t="shared" si="25"/>
         <v>4.6199999999999998E-2</v>
       </c>
-      <c r="X124" s="75">
+      <c r="X124" s="74">
         <f t="shared" si="26"/>
         <v>23.329899999999999</v>
       </c>
-      <c r="Y124" s="75">
+      <c r="Y124" s="74">
         <f t="shared" si="27"/>
         <v>23.2837</v>
       </c>
-      <c r="Z124" s="76" t="e">
+      <c r="Z124" s="75" t="e">
         <f>VLOOKUP(A124,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA124" s="76" t="e">
+      <c r="AA124" s="75" t="e">
         <f>VLOOKUP(A124,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -12622,35 +12816,35 @@
       <c r="P125" s="13"/>
       <c r="Q125" s="62"/>
       <c r="R125" s="62"/>
-      <c r="T125" s="75" t="str">
+      <c r="T125" s="74" t="str">
         <f t="shared" si="48"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 20:37:45-0600',mode:absolute,to:'2016-05-12 21:35:14-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U125" s="75" t="str">
+      <c r="U125" s="74" t="str">
         <f t="shared" si="49"/>
         <v>N</v>
       </c>
-      <c r="V125" s="75">
+      <c r="V125" s="74">
         <f t="shared" si="50"/>
         <v>1</v>
       </c>
-      <c r="W125" s="75">
+      <c r="W125" s="74">
         <f t="shared" si="25"/>
         <v>23.298999999999999</v>
       </c>
-      <c r="X125" s="75">
+      <c r="X125" s="74">
         <f t="shared" si="26"/>
         <v>1.3599999999999999E-2</v>
       </c>
-      <c r="Y125" s="75">
+      <c r="Y125" s="74">
         <f t="shared" si="27"/>
         <v>23.285399999999999</v>
       </c>
-      <c r="Z125" s="76" t="e">
+      <c r="Z125" s="75" t="e">
         <f>VLOOKUP(A125,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA125" s="76" t="e">
+      <c r="AA125" s="75" t="e">
         <f>VLOOKUP(A125,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -12706,35 +12900,35 @@
       <c r="P126" s="13"/>
       <c r="Q126" s="62"/>
       <c r="R126" s="62"/>
-      <c r="T126" s="75" t="str">
+      <c r="T126" s="74" t="str">
         <f t="shared" si="48"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 20:23:01-0600',mode:absolute,to:'2016-05-12 21:07:48-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U126" s="75" t="str">
+      <c r="U126" s="74" t="str">
         <f t="shared" si="49"/>
         <v>N</v>
       </c>
-      <c r="V126" s="75">
+      <c r="V126" s="74">
         <f t="shared" si="50"/>
         <v>1</v>
       </c>
-      <c r="W126" s="75">
+      <c r="W126" s="74">
         <f t="shared" si="25"/>
         <v>4.6600000000000003E-2</v>
       </c>
-      <c r="X126" s="75">
+      <c r="X126" s="74">
         <f t="shared" si="26"/>
         <v>23.3293</v>
       </c>
-      <c r="Y126" s="75">
+      <c r="Y126" s="74">
         <f t="shared" si="27"/>
         <v>23.282699999999998</v>
       </c>
-      <c r="Z126" s="76" t="e">
+      <c r="Z126" s="75" t="e">
         <f>VLOOKUP(A126,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA126" s="76" t="e">
+      <c r="AA126" s="75" t="e">
         <f>VLOOKUP(A126,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -12790,35 +12984,35 @@
       <c r="P127" s="13"/>
       <c r="Q127" s="62"/>
       <c r="R127" s="62"/>
-      <c r="T127" s="75" t="str">
+      <c r="T127" s="74" t="str">
         <f t="shared" si="48"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 21:21:36-0600',mode:absolute,to:'2016-05-12 22:06:14-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U127" s="75" t="str">
+      <c r="U127" s="74" t="str">
         <f t="shared" si="49"/>
         <v>N</v>
       </c>
-      <c r="V127" s="75">
+      <c r="V127" s="74">
         <f t="shared" si="50"/>
         <v>1</v>
       </c>
-      <c r="W127" s="75">
+      <c r="W127" s="74">
         <f t="shared" ref="W127:W143" si="51">RIGHT(D127,LEN(D127)-4)/10000</f>
         <v>23.297499999999999</v>
       </c>
-      <c r="X127" s="75">
+      <c r="X127" s="74">
         <f t="shared" ref="X127:X143" si="52">RIGHT(H127,LEN(H127)-4)/10000</f>
         <v>1.4500000000000001E-2</v>
       </c>
-      <c r="Y127" s="75">
+      <c r="Y127" s="74">
         <f t="shared" ref="Y127:Y143" si="53">ABS(X127-W127)</f>
         <v>23.282999999999998</v>
       </c>
-      <c r="Z127" s="76" t="e">
+      <c r="Z127" s="75" t="e">
         <f>VLOOKUP(A127,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA127" s="76" t="e">
+      <c r="AA127" s="75" t="e">
         <f>VLOOKUP(A127,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -12874,35 +13068,35 @@
       <c r="P128" s="13"/>
       <c r="Q128" s="62"/>
       <c r="R128" s="62"/>
-      <c r="T128" s="75" t="str">
+      <c r="T128" s="74" t="str">
         <f t="shared" si="48"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 20:49:18-0600',mode:absolute,to:'2016-05-12 21:39:21-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4014%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U128" s="75" t="str">
+      <c r="U128" s="74" t="str">
         <f t="shared" si="49"/>
         <v>N</v>
       </c>
-      <c r="V128" s="75">
+      <c r="V128" s="74">
         <f t="shared" si="50"/>
         <v>1</v>
       </c>
-      <c r="W128" s="75">
+      <c r="W128" s="74">
         <f t="shared" si="51"/>
         <v>4.6199999999999998E-2</v>
       </c>
-      <c r="X128" s="75">
+      <c r="X128" s="74">
         <f t="shared" si="52"/>
         <v>23.330300000000001</v>
       </c>
-      <c r="Y128" s="75">
+      <c r="Y128" s="74">
         <f t="shared" si="53"/>
         <v>23.284100000000002</v>
       </c>
-      <c r="Z128" s="76" t="e">
+      <c r="Z128" s="75" t="e">
         <f>VLOOKUP(A128,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA128" s="76" t="e">
+      <c r="AA128" s="75" t="e">
         <f>VLOOKUP(A128,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -12958,35 +13152,35 @@
       <c r="P129" s="13"/>
       <c r="Q129" s="62"/>
       <c r="R129" s="62"/>
-      <c r="T129" s="75" t="str">
+      <c r="T129" s="74" t="str">
         <f t="shared" si="48"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 21:46:59-0600',mode:absolute,to:'2016-05-12 22:37:07-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4013%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U129" s="75" t="str">
+      <c r="U129" s="74" t="str">
         <f t="shared" si="49"/>
         <v>N</v>
       </c>
-      <c r="V129" s="75">
+      <c r="V129" s="74">
         <f t="shared" si="50"/>
         <v>1</v>
       </c>
-      <c r="W129" s="75">
+      <c r="W129" s="74">
         <f t="shared" si="51"/>
         <v>23.2973</v>
       </c>
-      <c r="X129" s="75">
+      <c r="X129" s="74">
         <f t="shared" si="52"/>
         <v>1.5599999999999999E-2</v>
       </c>
-      <c r="Y129" s="75">
+      <c r="Y129" s="74">
         <f t="shared" si="53"/>
         <v>23.281700000000001</v>
       </c>
-      <c r="Z129" s="76" t="e">
+      <c r="Z129" s="75" t="e">
         <f>VLOOKUP(A129,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA129" s="76" t="e">
+      <c r="AA129" s="75" t="e">
         <f>VLOOKUP(A129,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -13042,35 +13236,35 @@
       <c r="P130" s="13"/>
       <c r="Q130" s="62"/>
       <c r="R130" s="62"/>
-      <c r="T130" s="75" t="str">
+      <c r="T130" s="74" t="str">
         <f t="shared" si="48"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 21:19:30-0600',mode:absolute,to:'2016-05-12 22:10:45-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U130" s="75" t="str">
+      <c r="U130" s="74" t="str">
         <f t="shared" si="49"/>
         <v>N</v>
       </c>
-      <c r="V130" s="75">
+      <c r="V130" s="74">
         <f t="shared" si="50"/>
         <v>1</v>
       </c>
-      <c r="W130" s="75">
+      <c r="W130" s="74">
         <f t="shared" si="51"/>
         <v>4.9700000000000001E-2</v>
       </c>
-      <c r="X130" s="75">
+      <c r="X130" s="74">
         <f t="shared" si="52"/>
         <v>23.326799999999999</v>
       </c>
-      <c r="Y130" s="75">
+      <c r="Y130" s="74">
         <f t="shared" si="53"/>
         <v>23.277099999999997</v>
       </c>
-      <c r="Z130" s="76" t="e">
+      <c r="Z130" s="75" t="e">
         <f>VLOOKUP(A130,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA130" s="76" t="e">
+      <c r="AA130" s="75" t="e">
         <f>VLOOKUP(A130,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -13126,35 +13320,35 @@
       <c r="P131" s="13"/>
       <c r="Q131" s="62"/>
       <c r="R131" s="62"/>
-      <c r="T131" s="75" t="str">
+      <c r="T131" s="74" t="str">
         <f t="shared" si="48"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 22:17:23-0600',mode:absolute,to:'2016-05-12 23:07:40-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U131" s="75" t="str">
+      <c r="U131" s="74" t="str">
         <f t="shared" si="49"/>
         <v>N</v>
       </c>
-      <c r="V131" s="75">
+      <c r="V131" s="74">
         <f t="shared" si="50"/>
         <v>1</v>
       </c>
-      <c r="W131" s="75">
+      <c r="W131" s="74">
         <f t="shared" si="51"/>
         <v>23.2957</v>
       </c>
-      <c r="X131" s="75">
+      <c r="X131" s="74">
         <f t="shared" si="52"/>
         <v>1.5599999999999999E-2</v>
       </c>
-      <c r="Y131" s="75">
+      <c r="Y131" s="74">
         <f t="shared" si="53"/>
         <v>23.280100000000001</v>
       </c>
-      <c r="Z131" s="76" t="e">
+      <c r="Z131" s="75" t="e">
         <f>VLOOKUP(A131,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA131" s="76" t="e">
+      <c r="AA131" s="75" t="e">
         <f>VLOOKUP(A131,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -13210,35 +13404,35 @@
       <c r="P132" s="13"/>
       <c r="Q132" s="62"/>
       <c r="R132" s="62"/>
-      <c r="T132" s="75" t="str">
+      <c r="T132" s="74" t="str">
         <f t="shared" si="48"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 21:35:29-0600',mode:absolute,to:'2016-05-12 22:37:20-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U132" s="75" t="str">
+      <c r="U132" s="74" t="str">
         <f t="shared" si="49"/>
         <v>N</v>
       </c>
-      <c r="V132" s="75">
+      <c r="V132" s="74">
         <f t="shared" si="50"/>
         <v>1</v>
       </c>
-      <c r="W132" s="75">
+      <c r="W132" s="74">
         <f t="shared" si="51"/>
         <v>4.6199999999999998E-2</v>
       </c>
-      <c r="X132" s="75">
+      <c r="X132" s="74">
         <f t="shared" si="52"/>
         <v>23.332899999999999</v>
       </c>
-      <c r="Y132" s="75">
+      <c r="Y132" s="74">
         <f t="shared" si="53"/>
         <v>23.2867</v>
       </c>
-      <c r="Z132" s="76" t="e">
+      <c r="Z132" s="75" t="e">
         <f>VLOOKUP(A132,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA132" s="76" t="e">
+      <c r="AA132" s="75" t="e">
         <f>VLOOKUP(A132,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -13294,35 +13488,35 @@
       <c r="P133" s="13"/>
       <c r="Q133" s="62"/>
       <c r="R133" s="62"/>
-      <c r="T133" s="75" t="str">
+      <c r="T133" s="74" t="str">
         <f t="shared" si="48"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 22:37:43-0600',mode:absolute,to:'2016-05-12 23:35:35-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U133" s="75" t="str">
+      <c r="U133" s="74" t="str">
         <f t="shared" si="49"/>
         <v>N</v>
       </c>
-      <c r="V133" s="75">
+      <c r="V133" s="74">
         <f t="shared" si="50"/>
         <v>1</v>
       </c>
-      <c r="W133" s="75">
+      <c r="W133" s="74">
         <f t="shared" si="51"/>
         <v>23.297899999999998</v>
       </c>
-      <c r="X133" s="75">
+      <c r="X133" s="74">
         <f t="shared" si="52"/>
         <v>1.1900000000000001E-2</v>
       </c>
-      <c r="Y133" s="75">
+      <c r="Y133" s="74">
         <f t="shared" si="53"/>
         <v>23.285999999999998</v>
       </c>
-      <c r="Z133" s="76" t="e">
+      <c r="Z133" s="75" t="e">
         <f>VLOOKUP(A133,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA133" s="76" t="e">
+      <c r="AA133" s="75" t="e">
         <f>VLOOKUP(A133,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -13378,35 +13572,35 @@
       <c r="P134" s="13"/>
       <c r="Q134" s="62"/>
       <c r="R134" s="62"/>
-      <c r="T134" s="75" t="str">
+      <c r="T134" s="74" t="str">
         <f t="shared" si="48"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 22:22:54-0600',mode:absolute,to:'2016-05-12 23:08:51-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U134" s="75" t="str">
+      <c r="U134" s="74" t="str">
         <f t="shared" si="49"/>
         <v>N</v>
       </c>
-      <c r="V134" s="75">
+      <c r="V134" s="74">
         <f t="shared" si="50"/>
         <v>1</v>
       </c>
-      <c r="W134" s="75">
+      <c r="W134" s="74">
         <f t="shared" si="51"/>
         <v>4.4699999999999997E-2</v>
       </c>
-      <c r="X134" s="75">
+      <c r="X134" s="74">
         <f t="shared" si="52"/>
         <v>23.331499999999998</v>
       </c>
-      <c r="Y134" s="75">
+      <c r="Y134" s="74">
         <f t="shared" si="53"/>
         <v>23.286799999999999</v>
       </c>
-      <c r="Z134" s="76" t="e">
+      <c r="Z134" s="75" t="e">
         <f>VLOOKUP(A134,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA134" s="76" t="e">
+      <c r="AA134" s="75" t="e">
         <f>VLOOKUP(A134,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -13462,35 +13656,35 @@
       <c r="P135" s="13"/>
       <c r="Q135" s="62"/>
       <c r="R135" s="62"/>
-      <c r="T135" s="75" t="str">
+      <c r="T135" s="74" t="str">
         <f t="shared" si="48"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 23:18:05-0600',mode:absolute,to:'2016-05-13 00:05:50-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U135" s="75" t="str">
+      <c r="U135" s="74" t="str">
         <f t="shared" si="49"/>
         <v>N</v>
       </c>
-      <c r="V135" s="75">
+      <c r="V135" s="74">
         <f t="shared" si="50"/>
         <v>1</v>
       </c>
-      <c r="W135" s="75">
+      <c r="W135" s="74">
         <f t="shared" si="51"/>
         <v>23.3004</v>
       </c>
-      <c r="X135" s="75">
+      <c r="X135" s="74">
         <f t="shared" si="52"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="Y135" s="75">
+      <c r="Y135" s="74">
         <f t="shared" si="53"/>
         <v>23.285399999999999</v>
       </c>
-      <c r="Z135" s="76" t="e">
+      <c r="Z135" s="75" t="e">
         <f>VLOOKUP(A135,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA135" s="76" t="e">
+      <c r="AA135" s="75" t="e">
         <f>VLOOKUP(A135,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -13546,35 +13740,35 @@
       <c r="P136" s="13"/>
       <c r="Q136" s="62"/>
       <c r="R136" s="62"/>
-      <c r="T136" s="75" t="str">
+      <c r="T136" s="74" t="str">
         <f t="shared" si="48"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 22:45:52-0600',mode:absolute,to:'2016-05-12 23:36:50-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4014%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U136" s="75" t="str">
+      <c r="U136" s="74" t="str">
         <f t="shared" si="49"/>
         <v>N</v>
       </c>
-      <c r="V136" s="75">
+      <c r="V136" s="74">
         <f t="shared" si="50"/>
         <v>1</v>
       </c>
-      <c r="W136" s="75">
+      <c r="W136" s="74">
         <f t="shared" si="51"/>
         <v>4.4699999999999997E-2</v>
       </c>
-      <c r="X136" s="75">
+      <c r="X136" s="74">
         <f t="shared" si="52"/>
         <v>23.3264</v>
       </c>
-      <c r="Y136" s="75">
+      <c r="Y136" s="74">
         <f t="shared" si="53"/>
         <v>23.281700000000001</v>
       </c>
-      <c r="Z136" s="76" t="e">
+      <c r="Z136" s="75" t="e">
         <f>VLOOKUP(A136,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA136" s="76" t="e">
+      <c r="AA136" s="75" t="e">
         <f>VLOOKUP(A136,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -13630,35 +13824,35 @@
       <c r="P137" s="13"/>
       <c r="Q137" s="62"/>
       <c r="R137" s="62"/>
-      <c r="T137" s="75" t="str">
+      <c r="T137" s="74" t="str">
         <f t="shared" si="48"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 23:45:04-0600',mode:absolute,to:'2016-05-13 00:34:47-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4013%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U137" s="75" t="str">
+      <c r="U137" s="74" t="str">
         <f t="shared" si="49"/>
         <v>N</v>
       </c>
-      <c r="V137" s="75">
+      <c r="V137" s="74">
         <f t="shared" si="50"/>
         <v>1</v>
       </c>
-      <c r="W137" s="75">
+      <c r="W137" s="74">
         <f t="shared" si="51"/>
         <v>23.2957</v>
       </c>
-      <c r="X137" s="75">
+      <c r="X137" s="74">
         <f t="shared" si="52"/>
         <v>1.7600000000000001E-2</v>
       </c>
-      <c r="Y137" s="75">
+      <c r="Y137" s="74">
         <f t="shared" si="53"/>
         <v>23.278099999999998</v>
       </c>
-      <c r="Z137" s="76" t="e">
+      <c r="Z137" s="75" t="e">
         <f>VLOOKUP(A137,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA137" s="76" t="e">
+      <c r="AA137" s="75" t="e">
         <f>VLOOKUP(A137,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -13714,35 +13908,35 @@
       <c r="P138" s="13"/>
       <c r="Q138" s="62"/>
       <c r="R138" s="62"/>
-      <c r="T138" s="75" t="str">
+      <c r="T138" s="74" t="str">
         <f t="shared" si="48"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 23:20:58-0600',mode:absolute,to:'2016-05-13 00:09:50-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4040%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U138" s="75" t="str">
+      <c r="U138" s="74" t="str">
         <f t="shared" si="49"/>
         <v>N</v>
       </c>
-      <c r="V138" s="75">
+      <c r="V138" s="74">
         <f t="shared" si="50"/>
         <v>1</v>
       </c>
-      <c r="W138" s="75">
+      <c r="W138" s="74">
         <f t="shared" si="51"/>
         <v>4.5499999999999999E-2</v>
       </c>
-      <c r="X138" s="75">
+      <c r="X138" s="74">
         <f t="shared" si="52"/>
         <v>23.3293</v>
       </c>
-      <c r="Y138" s="75">
+      <c r="Y138" s="74">
         <f t="shared" si="53"/>
         <v>23.283799999999999</v>
       </c>
-      <c r="Z138" s="76" t="e">
+      <c r="Z138" s="75" t="e">
         <f>VLOOKUP(A138,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA138" s="76" t="e">
+      <c r="AA138" s="75" t="e">
         <f>VLOOKUP(A138,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -13798,35 +13992,35 @@
       <c r="P139" s="13"/>
       <c r="Q139" s="62"/>
       <c r="R139" s="62"/>
-      <c r="T139" s="75" t="str">
+      <c r="T139" s="74" t="str">
         <f t="shared" si="48"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 00:19:06-0600',mode:absolute,to:'2016-05-13 01:05:57-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4039%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U139" s="75" t="str">
+      <c r="U139" s="74" t="str">
         <f t="shared" si="49"/>
         <v>N</v>
       </c>
-      <c r="V139" s="75">
+      <c r="V139" s="74">
         <f t="shared" si="50"/>
         <v>1</v>
       </c>
-      <c r="W139" s="75">
+      <c r="W139" s="74">
         <f t="shared" si="51"/>
         <v>23.298300000000001</v>
       </c>
-      <c r="X139" s="75">
+      <c r="X139" s="74">
         <f t="shared" si="52"/>
         <v>1.6500000000000001E-2</v>
       </c>
-      <c r="Y139" s="75">
+      <c r="Y139" s="74">
         <f t="shared" si="53"/>
         <v>23.2818</v>
       </c>
-      <c r="Z139" s="76" t="e">
+      <c r="Z139" s="75" t="e">
         <f>VLOOKUP(A139,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA139" s="76" t="e">
+      <c r="AA139" s="75" t="e">
         <f>VLOOKUP(A139,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -13882,35 +14076,35 @@
       <c r="P140" s="13"/>
       <c r="Q140" s="62"/>
       <c r="R140" s="62"/>
-      <c r="T140" s="75" t="str">
+      <c r="T140" s="74" t="str">
         <f t="shared" ref="T140:T142" si="59">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E140-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I140+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B140&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-12 23:37:22-0600',mode:absolute,to:'2016-05-13 00:36:40-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4020%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U140" s="75" t="str">
+      <c r="U140" s="74" t="str">
         <f t="shared" ref="U140:U142" si="60">IF(Y140&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
-      <c r="V140" s="75">
+      <c r="V140" s="74">
         <f t="shared" ref="V140:V142" si="61">VALUE(LEFT(A140,3))-VALUE(LEFT(A139,3))</f>
         <v>1</v>
       </c>
-      <c r="W140" s="75">
+      <c r="W140" s="74">
         <f t="shared" si="51"/>
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="X140" s="75">
+      <c r="X140" s="74">
         <f t="shared" si="52"/>
         <v>23.331</v>
       </c>
-      <c r="Y140" s="75">
+      <c r="Y140" s="74">
         <f t="shared" si="53"/>
         <v>23.286999999999999</v>
       </c>
-      <c r="Z140" s="76" t="e">
+      <c r="Z140" s="75" t="e">
         <f>VLOOKUP(A140,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA140" s="76" t="e">
+      <c r="AA140" s="75" t="e">
         <f>VLOOKUP(A140,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -13966,35 +14160,35 @@
       <c r="P141" s="13"/>
       <c r="Q141" s="62"/>
       <c r="R141" s="62"/>
-      <c r="T141" s="75" t="str">
+      <c r="T141" s="74" t="str">
         <f t="shared" si="59"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 00:41:43-0600',mode:absolute,to:'2016-05-13 01:34:41-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4019%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U141" s="75" t="str">
+      <c r="U141" s="74" t="str">
         <f t="shared" si="60"/>
         <v>N</v>
       </c>
-      <c r="V141" s="75">
+      <c r="V141" s="74">
         <f t="shared" si="61"/>
         <v>1</v>
       </c>
-      <c r="W141" s="75">
+      <c r="W141" s="74">
         <f t="shared" si="51"/>
         <v>23.299399999999999</v>
       </c>
-      <c r="X141" s="75">
+      <c r="X141" s="74">
         <f t="shared" si="52"/>
         <v>1.52E-2</v>
       </c>
-      <c r="Y141" s="75">
+      <c r="Y141" s="74">
         <f t="shared" si="53"/>
         <v>23.284199999999998</v>
       </c>
-      <c r="Z141" s="76" t="e">
+      <c r="Z141" s="75" t="e">
         <f>VLOOKUP(A141,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA141" s="76" t="e">
+      <c r="AA141" s="75" t="e">
         <f>VLOOKUP(A141,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -14050,35 +14244,35 @@
       <c r="P142" s="13"/>
       <c r="Q142" s="62"/>
       <c r="R142" s="62"/>
-      <c r="T142" s="75" t="str">
+      <c r="T142" s="74" t="str">
         <f t="shared" si="59"/>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 00:23:57-0600',mode:absolute,to:'2016-05-13 01:08:18-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4007%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U142" s="75" t="str">
+      <c r="U142" s="74" t="str">
         <f t="shared" si="60"/>
         <v>N</v>
       </c>
-      <c r="V142" s="75">
+      <c r="V142" s="74">
         <f t="shared" si="61"/>
         <v>1</v>
       </c>
-      <c r="W142" s="75">
+      <c r="W142" s="74">
         <f t="shared" si="51"/>
         <v>4.5100000000000001E-2</v>
       </c>
-      <c r="X142" s="75">
+      <c r="X142" s="74">
         <f t="shared" si="52"/>
         <v>23.330400000000001</v>
       </c>
-      <c r="Y142" s="75">
+      <c r="Y142" s="74">
         <f t="shared" si="53"/>
         <v>23.285299999999999</v>
       </c>
-      <c r="Z142" s="76" t="e">
+      <c r="Z142" s="75" t="e">
         <f>VLOOKUP(A142,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA142" s="76" t="e">
+      <c r="AA142" s="75" t="e">
         <f>VLOOKUP(A142,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
@@ -14134,84 +14328,84 @@
       <c r="P143" s="13"/>
       <c r="Q143" s="62"/>
       <c r="R143" s="62"/>
-      <c r="T143" s="75" t="str">
+      <c r="T143" s="74" t="str">
         <f t="shared" ref="T143" si="62">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E143-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I143+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B143&amp;"%22')),sort:!(Time,asc))"</f>
         <v>https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'2016-05-13 01:22:28-0600',mode:absolute,to:'2016-05-13 02:06:45-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed','Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc.4008%22')),sort:!(Time,asc))</v>
       </c>
-      <c r="U143" s="75" t="str">
+      <c r="U143" s="74" t="str">
         <f t="shared" ref="U143" si="63">IF(Y143&lt;23,"Y","N")</f>
         <v>N</v>
       </c>
-      <c r="V143" s="75">
+      <c r="V143" s="74">
         <f t="shared" ref="V143" si="64">VALUE(LEFT(A143,3))-VALUE(LEFT(A142,3))</f>
         <v>1</v>
       </c>
-      <c r="W143" s="75">
+      <c r="W143" s="74">
         <f t="shared" si="51"/>
         <v>23.298500000000001</v>
       </c>
-      <c r="X143" s="75">
+      <c r="X143" s="74">
         <f t="shared" si="52"/>
         <v>0.1177</v>
       </c>
-      <c r="Y143" s="75">
+      <c r="Y143" s="74">
         <f t="shared" si="53"/>
         <v>23.180800000000001</v>
       </c>
-      <c r="Z143" s="76" t="e">
+      <c r="Z143" s="75" t="e">
         <f>VLOOKUP(A143,Enforcements!$C$3:$J$26,8,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="AA143" s="76" t="e">
+      <c r="AA143" s="75" t="e">
         <f>VLOOKUP(A143,Enforcements!$C$3:$J$26,3,0)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="144" spans="1:27" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="64"/>
-      <c r="B144" s="64"/>
-      <c r="C144" s="64"/>
-      <c r="D144" s="64"/>
-      <c r="E144" s="65"/>
-      <c r="F144" s="65"/>
-      <c r="G144" s="66"/>
-      <c r="H144" s="65"/>
-      <c r="I144" s="65"/>
-      <c r="J144" s="64"/>
-      <c r="K144" s="64"/>
-      <c r="L144" s="64"/>
-      <c r="M144" s="67"/>
-      <c r="N144" s="68"/>
-      <c r="O144" s="68"/>
-      <c r="P144" s="68"/>
-      <c r="Q144" s="69"/>
-      <c r="R144" s="69"/>
-      <c r="T144" s="70"/>
-      <c r="U144" s="70"/>
-      <c r="V144" s="70"/>
-      <c r="W144" s="70"/>
-      <c r="X144" s="70"/>
-      <c r="Y144" s="70"/>
-      <c r="Z144" s="71"/>
-      <c r="AA144" s="71"/>
+      <c r="A144" s="63"/>
+      <c r="B144" s="63"/>
+      <c r="C144" s="63"/>
+      <c r="D144" s="63"/>
+      <c r="E144" s="64"/>
+      <c r="F144" s="64"/>
+      <c r="G144" s="65"/>
+      <c r="H144" s="64"/>
+      <c r="I144" s="64"/>
+      <c r="J144" s="63"/>
+      <c r="K144" s="63"/>
+      <c r="L144" s="63"/>
+      <c r="M144" s="66"/>
+      <c r="N144" s="67"/>
+      <c r="O144" s="67"/>
+      <c r="P144" s="67"/>
+      <c r="Q144" s="68"/>
+      <c r="R144" s="68"/>
+      <c r="T144" s="69"/>
+      <c r="U144" s="69"/>
+      <c r="V144" s="69"/>
+      <c r="W144" s="69"/>
+      <c r="X144" s="69"/>
+      <c r="Y144" s="69"/>
+      <c r="Z144" s="70"/>
+      <c r="AA144" s="70"/>
     </row>
     <row r="145" spans="2:27" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E145" s="31"/>
       <c r="F145" s="31"/>
       <c r="G145" s="39"/>
       <c r="H145" s="31"/>
-      <c r="I145" s="78">
+      <c r="I145" s="77">
         <f>Variables!A2</f>
         <v>42501</v>
       </c>
-      <c r="J145" s="79"/>
-      <c r="K145" s="77"/>
-      <c r="L145" s="77"/>
-      <c r="M145" s="80" t="s">
+      <c r="J145" s="78"/>
+      <c r="K145" s="76"/>
+      <c r="L145" s="76"/>
+      <c r="M145" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="N145" s="81"/>
-      <c r="O145" s="82"/>
+      <c r="N145" s="80"/>
+      <c r="O145" s="81"/>
       <c r="P145" s="5"/>
       <c r="T145" s="57"/>
       <c r="U145" s="57"/>
@@ -14227,10 +14421,10 @@
       <c r="F146" s="31"/>
       <c r="G146" s="39"/>
       <c r="H146" s="31"/>
-      <c r="I146" s="83" t="s">
+      <c r="I146" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="J146" s="84"/>
+      <c r="J146" s="83"/>
       <c r="K146" s="35"/>
       <c r="L146" s="59"/>
       <c r="M146" s="9" t="s">
@@ -14266,7 +14460,7 @@
       </c>
       <c r="K147" s="3"/>
       <c r="L147" s="3"/>
-      <c r="M147" s="72" t="s">
+      <c r="M147" s="71" t="s">
         <v>15</v>
       </c>
       <c r="N147" s="6" t="s">
@@ -14299,9 +14493,9 @@
       </c>
       <c r="K148" s="3"/>
       <c r="L148" s="3"/>
-      <c r="M148" s="72">
+      <c r="M148" s="71">
         <f>AVERAGE(N3:N143)</f>
-        <v>44.467661691188411</v>
+        <v>44.105721392752187</v>
       </c>
       <c r="N148" s="6">
         <f>MIN(N3:N143)</f>
@@ -14309,7 +14503,7 @@
       </c>
       <c r="O148" s="7">
         <f>MAX(N3:N143)</f>
-        <v>114.299999991199</v>
+        <v>65.800000000745058</v>
       </c>
       <c r="P148" s="5"/>
       <c r="T148" s="57"/>
@@ -14338,7 +14532,7 @@
       </c>
       <c r="K149" s="3"/>
       <c r="L149" s="3"/>
-      <c r="M149" s="72">
+      <c r="M149" s="71">
         <f>IFERROR(AVERAGE(O3:O143),0)</f>
         <v>0</v>
       </c>
@@ -14380,7 +14574,7 @@
       </c>
       <c r="K150" s="3"/>
       <c r="L150" s="3"/>
-      <c r="M150" s="72" t="s">
+      <c r="M150" s="71" t="s">
         <v>15</v>
       </c>
       <c r="N150" s="6" t="s">
@@ -14416,9 +14610,9 @@
       </c>
       <c r="K151" s="3"/>
       <c r="L151" s="3"/>
-      <c r="M151" s="72">
+      <c r="M151" s="71">
         <f>AVERAGE(N3:P143)</f>
-        <v>43.942434987880567</v>
+        <v>43.598463356742599</v>
       </c>
       <c r="N151" s="6">
         <f>MIN(N3:O143)</f>
@@ -14426,7 +14620,7 @@
       </c>
       <c r="O151" s="7">
         <f>MAX(N3:O143)</f>
-        <v>114.299999991199</v>
+        <v>65.800000000745058</v>
       </c>
       <c r="P151" s="5"/>
       <c r="T151" s="57"/>
@@ -14655,28 +14849,28 @@
     <mergeCell ref="A1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="U1:V1 U2 U3:V1048576">
-    <cfRule type="cellIs" dxfId="9" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="20" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1 V3:V1048576">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144:P144 A3:R143">
-    <cfRule type="expression" dxfId="7" priority="34">
+    <cfRule type="expression" dxfId="10" priority="34">
       <formula>$P3&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="35">
+    <cfRule type="expression" dxfId="9" priority="35">
       <formula>$O3&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q144:R144">
-    <cfRule type="expression" dxfId="5" priority="76">
+    <cfRule type="expression" dxfId="8" priority="76">
       <formula>$P144&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="77">
+    <cfRule type="expression" dxfId="7" priority="77">
       <formula>$O163&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14709,7 +14903,7 @@
   <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14731,22 +14925,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="str">
+      <c r="A1" s="85" t="str">
         <f>"Eagle P3 Braking Events - "&amp;TEXT(Variables!$A$2,"YYYY-mm-dd")</f>
         <v>Eagle P3 Braking Events - 2016-05-11</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
       <c r="N1" s="27"/>
     </row>
     <row r="2" spans="1:14" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -14918,10 +15112,10 @@
         <v>YOUNG</v>
       </c>
       <c r="M5" s="20" t="s">
-        <v>338</v>
+        <v>103</v>
       </c>
       <c r="N5" s="21" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -14963,10 +15157,10 @@
         <v>YOUNG</v>
       </c>
       <c r="M6" s="20" t="s">
-        <v>338</v>
+        <v>103</v>
       </c>
       <c r="N6" s="21" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -15483,11 +15677,9 @@
         <v>JACKSON</v>
       </c>
       <c r="M18" s="20" t="s">
-        <v>338</v>
-      </c>
-      <c r="N18" s="21" t="s">
-        <v>403</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="N18" s="21"/>
     </row>
     <row r="19" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
@@ -15528,11 +15720,9 @@
         <v>BARTLETT</v>
       </c>
       <c r="M19" s="20" t="s">
-        <v>338</v>
-      </c>
-      <c r="N19" s="21" t="s">
-        <v>403</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="N19" s="21"/>
     </row>
     <row r="20" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
@@ -17044,7 +17234,7 @@
       <c r="L56" s="53"/>
       <c r="M56" s="17">
         <f>COUNTIF(M3:M53,"=Y")</f>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17063,7 +17253,7 @@
       <c r="L57" s="54"/>
       <c r="M57" s="15">
         <f>COUNTA(M3:M53)-M56</f>
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -17079,17 +17269,17 @@
     <mergeCell ref="A1:M1"/>
   </mergeCells>
   <conditionalFormatting sqref="N2 M2:M1048576">
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:L28 N27:N28 B54:N55 B46:L53 N46:N53 M4:M53 B3:N26">
-    <cfRule type="expression" dxfId="1" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>$M3="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:L45 N29:N45">
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>$M29="Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17103,55 +17293,83 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="str">
+      <c r="A1" s="86" t="str">
         <f>"Trips that did not appear in PTC Data "&amp;TEXT(Variables!$A$2,"YYYY-mm-dd")</f>
         <v>Trips that did not appear in PTC Data 2016-05-11</v>
       </c>
+      <c r="B1" s="87"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="87" t="s">
         <v>389</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="87" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="87" t="s">
         <v>390</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="63" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="87" t="s">
+        <v>391</v>
+      </c>
+      <c r="B4" s="87" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>391</v>
-      </c>
-      <c r="B4" s="60" t="s">
-        <v>397</v>
-      </c>
-    </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="87" t="s">
         <v>392</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="87" t="s">
         <v>393</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>$P3&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>$O3&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{1646EFB0-D2F9-4334-A63B-F3CB99B31FAE}">
+            <xm:f>$N3&gt;Variables!$C$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="5" tint="0.79998168889431442"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B3</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
